--- a/data/stomata-franks_modernTests.xlsx
+++ b/data/stomata-franks_modernTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\landPlants\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F0B648-C33D-4C2A-A41E-73A6593BE941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D9470-7F1A-4DAA-AE2B-2EC0AEED33A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39150" yWindow="1950" windowWidth="23520" windowHeight="17130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leaf gas-exchange_Franks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="194">
   <si>
     <t>INPUT PARAMETERS (see Franks et al., 2014 and Kowalczyk et al., 2018 for details): The "_err" input should be +/-1 standard error of the mean. If this value is unknown, the error can be estimated as some fraction of the mean (e.g., 5%).</t>
   </si>
@@ -620,6 +620,9 @@
   <si>
     <t>Stenochlaena</t>
   </si>
+  <si>
+    <t>PL_GCL</t>
+  </si>
 </sst>
 </file>
 
@@ -680,29 +683,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -903,10 +911,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,14 +1195,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ121"/>
+  <dimension ref="A1:DA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="DA4" sqref="DA4:DA96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="27" max="27" width="31.875" customWidth="1"/>
     <col min="33" max="33" width="11.625" customWidth="1"/>
@@ -1205,7 +1213,7 @@
     <col min="48" max="48" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.8">
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="21"/>
@@ -1226,7 +1234,7 @@
       <c r="W1" s="26"/>
       <c r="X1" s="27"/>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1246,11 +1254,11 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -1441,7 +1449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:104" s="11" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" s="11" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A3" s="17" t="s">
         <v>139</v>
       </c>
@@ -1754,8 +1762,11 @@
       <c r="CZ3" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="DA3" s="11" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="D4" s="34"/>
@@ -1801,10 +1812,10 @@
       <c r="AV4" s="39"/>
       <c r="AW4" s="39"/>
       <c r="AX4" s="39"/>
-      <c r="AY4" s="44">
+      <c r="AY4" s="43">
         <v>32100000</v>
       </c>
-      <c r="AZ4" s="44">
+      <c r="AZ4" s="43">
         <v>2260000</v>
       </c>
       <c r="BA4" s="39"/>
@@ -1815,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="39"/>
-      <c r="BE4" s="44">
+      <c r="BE4" s="43">
         <v>2.7399999999999999E-5</v>
       </c>
-      <c r="BF4" s="44">
+      <c r="BF4" s="43">
         <v>5.5199999999999997E-7</v>
       </c>
       <c r="BH4">
@@ -1828,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="39"/>
-      <c r="BK4" s="44">
+      <c r="BK4" s="43">
         <v>1.77E-5</v>
       </c>
-      <c r="BL4" s="44">
+      <c r="BL4" s="43">
         <v>2.9400000000000001E-7</v>
       </c>
       <c r="BN4">
@@ -1925,8 +1936,11 @@
         <v>40</v>
       </c>
       <c r="CZ4" s="39"/>
+      <c r="DA4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="D5" s="34"/>
@@ -1972,10 +1986,10 @@
       <c r="AV5" s="39"/>
       <c r="AW5" s="39"/>
       <c r="AX5" s="39"/>
-      <c r="AY5" s="44">
+      <c r="AY5" s="43">
         <v>45000000</v>
       </c>
-      <c r="AZ5" s="44">
+      <c r="AZ5" s="43">
         <v>3880000</v>
       </c>
       <c r="BA5" s="39"/>
@@ -1986,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="39"/>
-      <c r="BE5" s="44">
+      <c r="BE5" s="43">
         <v>2.69E-5</v>
       </c>
-      <c r="BF5" s="44">
+      <c r="BF5" s="43">
         <v>1.11E-6</v>
       </c>
       <c r="BH5">
@@ -1999,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="39"/>
-      <c r="BK5" s="44">
+      <c r="BK5" s="43">
         <v>1.7399999999999999E-5</v>
       </c>
-      <c r="BL5" s="44">
+      <c r="BL5" s="43">
         <v>5.2900000000000004E-7</v>
       </c>
       <c r="BN5">
@@ -2096,8 +2110,11 @@
         <v>40</v>
       </c>
       <c r="CZ5" s="39"/>
+      <c r="DA5">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A6" s="34"/>
       <c r="B6" s="35"/>
       <c r="D6" s="34"/>
@@ -2143,10 +2160,10 @@
       <c r="AV6" s="39"/>
       <c r="AW6" s="39"/>
       <c r="AX6" s="39"/>
-      <c r="AY6" s="44">
+      <c r="AY6" s="43">
         <v>28900000</v>
       </c>
-      <c r="AZ6" s="44">
+      <c r="AZ6" s="43">
         <v>2560000</v>
       </c>
       <c r="BA6" s="39"/>
@@ -2157,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="39"/>
-      <c r="BE6" s="44">
+      <c r="BE6" s="43">
         <v>3.4199999999999998E-5</v>
       </c>
-      <c r="BF6" s="44">
+      <c r="BF6" s="43">
         <v>8.0599999999999999E-7</v>
       </c>
       <c r="BH6">
@@ -2170,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="39"/>
-      <c r="BK6" s="44">
+      <c r="BK6" s="43">
         <v>1.6099999999999998E-5</v>
       </c>
-      <c r="BL6" s="44">
+      <c r="BL6" s="43">
         <v>2.7799999999999997E-7</v>
       </c>
       <c r="BN6">
@@ -2267,8 +2284,11 @@
         <v>40</v>
       </c>
       <c r="CZ6" s="39"/>
+      <c r="DA6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="D7" s="34"/>
@@ -2314,10 +2334,10 @@
       <c r="AV7" s="39"/>
       <c r="AW7" s="39"/>
       <c r="AX7" s="39"/>
-      <c r="AY7" s="44">
+      <c r="AY7" s="43">
         <v>34300000</v>
       </c>
-      <c r="AZ7" s="44">
+      <c r="AZ7" s="43">
         <v>2200000</v>
       </c>
       <c r="BA7" s="34"/>
@@ -2328,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="34"/>
-      <c r="BE7" s="44">
+      <c r="BE7" s="43">
         <v>3.1199999999999999E-5</v>
       </c>
-      <c r="BF7" s="44">
+      <c r="BF7" s="43">
         <v>1.0300000000000001E-6</v>
       </c>
       <c r="BH7">
@@ -2341,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="34"/>
-      <c r="BK7" s="44">
+      <c r="BK7" s="43">
         <v>1.6200000000000001E-5</v>
       </c>
-      <c r="BL7" s="44">
+      <c r="BL7" s="43">
         <v>2.9299999999999999E-7</v>
       </c>
       <c r="BN7">
@@ -2438,8 +2458,11 @@
         <v>40</v>
       </c>
       <c r="CZ7" s="41"/>
+      <c r="DA7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A8" s="34"/>
       <c r="B8" s="35"/>
       <c r="D8" s="34"/>
@@ -2485,10 +2508,10 @@
       <c r="AV8" s="39"/>
       <c r="AW8" s="39"/>
       <c r="AX8" s="39"/>
-      <c r="AY8" s="44">
+      <c r="AY8" s="43">
         <v>32600000</v>
       </c>
-      <c r="AZ8" s="44">
+      <c r="AZ8" s="43">
         <v>2840000</v>
       </c>
       <c r="BA8" s="34"/>
@@ -2499,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="34"/>
-      <c r="BE8" s="44">
+      <c r="BE8" s="43">
         <v>3.2100000000000001E-5</v>
       </c>
-      <c r="BF8" s="44">
+      <c r="BF8" s="43">
         <v>1.2100000000000001E-6</v>
       </c>
       <c r="BH8">
@@ -2512,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="34"/>
-      <c r="BK8" s="44">
+      <c r="BK8" s="43">
         <v>1.6799999999999998E-5</v>
       </c>
-      <c r="BL8" s="44">
+      <c r="BL8" s="43">
         <v>3.6699999999999999E-7</v>
       </c>
       <c r="BN8">
@@ -2609,8 +2632,11 @@
         <v>40</v>
       </c>
       <c r="CZ8" s="41"/>
+      <c r="DA8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="D9" s="34"/>
@@ -2656,10 +2682,10 @@
       <c r="AV9" s="39"/>
       <c r="AW9" s="39"/>
       <c r="AX9" s="39"/>
-      <c r="AY9" s="44">
+      <c r="AY9" s="43">
         <v>50800000</v>
       </c>
-      <c r="AZ9" s="44">
+      <c r="AZ9" s="43">
         <v>3310000</v>
       </c>
       <c r="BA9" s="34"/>
@@ -2670,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="34"/>
-      <c r="BE9" s="44">
+      <c r="BE9" s="43">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="BF9" s="44">
+      <c r="BF9" s="43">
         <v>9.6299999999999993E-7</v>
       </c>
       <c r="BH9">
@@ -2683,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="34"/>
-      <c r="BK9" s="44">
+      <c r="BK9" s="43">
         <v>1.66E-5</v>
       </c>
-      <c r="BL9" s="44">
+      <c r="BL9" s="43">
         <v>2.4200000000000002E-7</v>
       </c>
       <c r="BN9">
@@ -2780,8 +2806,11 @@
         <v>40</v>
       </c>
       <c r="CZ9" s="41"/>
+      <c r="DA9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
       <c r="D10" s="34"/>
@@ -2827,10 +2856,10 @@
       <c r="AV10" s="39"/>
       <c r="AW10" s="39"/>
       <c r="AX10" s="39"/>
-      <c r="AY10" s="44">
+      <c r="AY10" s="43">
         <v>43300000</v>
       </c>
-      <c r="AZ10" s="44">
+      <c r="AZ10" s="43">
         <v>4350000</v>
       </c>
       <c r="BA10" s="34"/>
@@ -2841,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="34"/>
-      <c r="BE10" s="44">
+      <c r="BE10" s="43">
         <v>3.4199999999999998E-5</v>
       </c>
-      <c r="BF10" s="44">
+      <c r="BF10" s="43">
         <v>8.6199999999999996E-7</v>
       </c>
       <c r="BH10">
@@ -2854,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="34"/>
-      <c r="BK10" s="44">
+      <c r="BK10" s="43">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="BL10" s="44">
+      <c r="BL10" s="43">
         <v>2.9700000000000003E-7</v>
       </c>
       <c r="BN10">
@@ -2951,8 +2980,11 @@
         <v>40</v>
       </c>
       <c r="CZ10" s="41"/>
+      <c r="DA10">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A11" s="34"/>
       <c r="B11" s="35"/>
       <c r="D11" s="34"/>
@@ -2998,10 +3030,10 @@
       <c r="AV11" s="39"/>
       <c r="AW11" s="39"/>
       <c r="AX11" s="39"/>
-      <c r="AY11" s="44">
+      <c r="AY11" s="43">
         <v>36000000</v>
       </c>
-      <c r="AZ11" s="44">
+      <c r="AZ11" s="43">
         <v>978000</v>
       </c>
       <c r="BA11" s="34"/>
@@ -3012,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="34"/>
-      <c r="BE11" s="44">
+      <c r="BE11" s="43">
         <v>3.2700000000000002E-5</v>
       </c>
-      <c r="BF11" s="44">
+      <c r="BF11" s="43">
         <v>1.1599999999999999E-6</v>
       </c>
       <c r="BH11">
@@ -3025,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="34"/>
-      <c r="BK11" s="44">
+      <c r="BK11" s="43">
         <v>1.6500000000000001E-5</v>
       </c>
-      <c r="BL11" s="44">
+      <c r="BL11" s="43">
         <v>2.8999999999999998E-7</v>
       </c>
       <c r="BN11">
@@ -3122,8 +3154,11 @@
         <v>40</v>
       </c>
       <c r="CZ11" s="41"/>
+      <c r="DA11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="D12" s="34"/>
@@ -3169,10 +3204,10 @@
       <c r="AV12" s="39"/>
       <c r="AW12" s="39"/>
       <c r="AX12" s="39"/>
-      <c r="AY12" s="44">
+      <c r="AY12" s="43">
         <v>23500000</v>
       </c>
-      <c r="AZ12" s="44">
+      <c r="AZ12" s="43">
         <v>2330000</v>
       </c>
       <c r="BA12" s="34"/>
@@ -3183,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="34"/>
-      <c r="BE12" s="44">
+      <c r="BE12" s="43">
         <v>3.4900000000000001E-5</v>
       </c>
-      <c r="BF12" s="44">
+      <c r="BF12" s="43">
         <v>9.0100000000000003E-7</v>
       </c>
       <c r="BH12">
@@ -3196,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="44">
+      <c r="BK12" s="43">
         <v>1.8E-5</v>
       </c>
-      <c r="BL12" s="44">
+      <c r="BL12" s="43">
         <v>2.41E-7</v>
       </c>
       <c r="BN12">
@@ -3293,8 +3328,11 @@
         <v>40</v>
       </c>
       <c r="CZ12" s="41"/>
+      <c r="DA12">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
       <c r="D13" s="34"/>
@@ -3340,10 +3378,10 @@
       <c r="AV13" s="39"/>
       <c r="AW13" s="39"/>
       <c r="AX13" s="39"/>
-      <c r="AY13" s="44">
+      <c r="AY13" s="43">
         <v>26200000</v>
       </c>
-      <c r="AZ13" s="44">
+      <c r="AZ13" s="43">
         <v>842000</v>
       </c>
       <c r="BA13" s="34"/>
@@ -3354,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="34"/>
-      <c r="BE13" s="44">
+      <c r="BE13" s="43">
         <v>2.9300000000000001E-5</v>
       </c>
-      <c r="BF13" s="44">
+      <c r="BF13" s="43">
         <v>6.8500000000000001E-7</v>
       </c>
       <c r="BH13">
@@ -3367,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="34"/>
-      <c r="BK13" s="44">
+      <c r="BK13" s="43">
         <v>1.77E-5</v>
       </c>
-      <c r="BL13" s="44">
+      <c r="BL13" s="43">
         <v>3.96E-7</v>
       </c>
       <c r="BN13">
@@ -3464,8 +3502,11 @@
         <v>40</v>
       </c>
       <c r="CZ13" s="41"/>
+      <c r="DA13">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="D14" s="34"/>
@@ -3511,10 +3552,10 @@
       <c r="AV14" s="39"/>
       <c r="AW14" s="39"/>
       <c r="AX14" s="39"/>
-      <c r="AY14" s="44">
+      <c r="AY14" s="43">
         <v>26400000</v>
       </c>
-      <c r="AZ14" s="44">
+      <c r="AZ14" s="43">
         <v>1890000</v>
       </c>
       <c r="BA14" s="34"/>
@@ -3525,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="34"/>
-      <c r="BE14" s="44">
+      <c r="BE14" s="43">
         <v>3.3200000000000001E-5</v>
       </c>
-      <c r="BF14" s="44">
+      <c r="BF14" s="43">
         <v>6.9800000000000003E-7</v>
       </c>
       <c r="BH14">
@@ -3538,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="34"/>
-      <c r="BK14" s="44">
+      <c r="BK14" s="43">
         <v>1.7900000000000001E-5</v>
       </c>
-      <c r="BL14" s="44">
+      <c r="BL14" s="43">
         <v>3.6100000000000002E-7</v>
       </c>
       <c r="BN14">
@@ -3635,8 +3676,11 @@
         <v>40</v>
       </c>
       <c r="CZ14" s="41"/>
+      <c r="DA14">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="D15" s="34"/>
@@ -3682,10 +3726,10 @@
       <c r="AV15" s="39"/>
       <c r="AW15" s="39"/>
       <c r="AX15" s="39"/>
-      <c r="AY15" s="44">
+      <c r="AY15" s="43">
         <v>27200000</v>
       </c>
-      <c r="AZ15" s="44">
+      <c r="AZ15" s="43">
         <v>3080000</v>
       </c>
       <c r="BA15" s="34"/>
@@ -3696,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="34"/>
-      <c r="BE15" s="44">
+      <c r="BE15" s="43">
         <v>3.04E-5</v>
       </c>
-      <c r="BF15" s="44">
+      <c r="BF15" s="43">
         <v>1.0100000000000001E-6</v>
       </c>
       <c r="BH15">
@@ -3709,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="34"/>
-      <c r="BK15" s="44">
+      <c r="BK15" s="43">
         <v>1.6500000000000001E-5</v>
       </c>
-      <c r="BL15" s="44">
+      <c r="BL15" s="43">
         <v>2.5600000000000002E-7</v>
       </c>
       <c r="BN15">
@@ -3806,8 +3850,11 @@
         <v>40</v>
       </c>
       <c r="CZ15" s="41"/>
+      <c r="DA15">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A16" s="34"/>
       <c r="B16" s="35"/>
       <c r="D16" s="34"/>
@@ -3853,10 +3900,10 @@
       <c r="AV16" s="39"/>
       <c r="AW16" s="39"/>
       <c r="AX16" s="39"/>
-      <c r="AY16" s="44">
+      <c r="AY16" s="43">
         <v>36000000</v>
       </c>
-      <c r="AZ16" s="44">
+      <c r="AZ16" s="43">
         <v>2200000</v>
       </c>
       <c r="BA16" s="34"/>
@@ -3867,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="34"/>
-      <c r="BE16" s="44">
+      <c r="BE16" s="43">
         <v>2.8099999999999999E-5</v>
       </c>
-      <c r="BF16" s="44">
+      <c r="BF16" s="43">
         <v>1.06E-6</v>
       </c>
       <c r="BH16">
@@ -3880,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="34"/>
-      <c r="BK16" s="44">
+      <c r="BK16" s="43">
         <v>1.6200000000000001E-5</v>
       </c>
-      <c r="BL16" s="44">
+      <c r="BL16" s="43">
         <v>3.03E-7</v>
       </c>
       <c r="BN16">
@@ -3977,8 +4024,11 @@
         <v>40</v>
       </c>
       <c r="CZ16" s="41"/>
+      <c r="DA16">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="D17" s="34"/>
@@ -4024,10 +4074,10 @@
       <c r="AV17" s="39"/>
       <c r="AW17" s="39"/>
       <c r="AX17" s="39"/>
-      <c r="AY17" s="44">
+      <c r="AY17" s="43">
         <v>40000000</v>
       </c>
-      <c r="AZ17" s="44">
+      <c r="AZ17" s="43">
         <v>1060000</v>
       </c>
       <c r="BA17" s="34"/>
@@ -4038,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="34"/>
-      <c r="BE17" s="44">
+      <c r="BE17" s="43">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="BF17" s="44">
+      <c r="BF17" s="43">
         <v>9.47E-7</v>
       </c>
       <c r="BH17">
@@ -4051,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="34"/>
-      <c r="BK17" s="44">
+      <c r="BK17" s="43">
         <v>1.77E-5</v>
       </c>
-      <c r="BL17" s="44">
+      <c r="BL17" s="43">
         <v>3.3500000000000002E-7</v>
       </c>
       <c r="BN17">
@@ -4148,8 +4198,11 @@
         <v>40</v>
       </c>
       <c r="CZ17" s="41"/>
+      <c r="DA17">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="D18" s="34"/>
@@ -4195,10 +4248,10 @@
       <c r="AV18" s="39"/>
       <c r="AW18" s="39"/>
       <c r="AX18" s="39"/>
-      <c r="AY18" s="44">
+      <c r="AY18" s="43">
         <v>38800000</v>
       </c>
-      <c r="AZ18" s="44">
+      <c r="AZ18" s="43">
         <v>2230000</v>
       </c>
       <c r="BA18" s="34"/>
@@ -4209,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="BD18" s="34"/>
-      <c r="BE18" s="44">
+      <c r="BE18" s="43">
         <v>2.5199999999999999E-5</v>
       </c>
-      <c r="BF18" s="44">
+      <c r="BF18" s="43">
         <v>8.2900000000000002E-7</v>
       </c>
       <c r="BH18">
@@ -4222,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="BJ18" s="34"/>
-      <c r="BK18" s="44">
+      <c r="BK18" s="43">
         <v>1.7200000000000001E-5</v>
       </c>
-      <c r="BL18" s="44">
+      <c r="BL18" s="43">
         <v>2.2100000000000001E-7</v>
       </c>
       <c r="BN18">
@@ -4319,8 +4372,11 @@
         <v>40</v>
       </c>
       <c r="CZ18" s="41"/>
+      <c r="DA18">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A19" s="34"/>
       <c r="B19" s="35"/>
       <c r="D19" s="34"/>
@@ -4366,10 +4422,10 @@
       <c r="AV19" s="39"/>
       <c r="AW19" s="39"/>
       <c r="AX19" s="39"/>
-      <c r="AY19" s="44">
+      <c r="AY19" s="43">
         <v>43300000</v>
       </c>
-      <c r="AZ19" s="44">
+      <c r="AZ19" s="43">
         <v>1730000</v>
       </c>
       <c r="BA19" s="34"/>
@@ -4380,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="34"/>
-      <c r="BE19" s="44">
+      <c r="BE19" s="43">
         <v>2.5400000000000001E-5</v>
       </c>
-      <c r="BF19" s="44">
+      <c r="BF19" s="43">
         <v>8.2600000000000001E-7</v>
       </c>
       <c r="BH19">
@@ -4393,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="34"/>
-      <c r="BK19" s="44">
+      <c r="BK19" s="43">
         <v>1.6799999999999998E-5</v>
       </c>
-      <c r="BL19" s="44">
+      <c r="BL19" s="43">
         <v>1.74E-7</v>
       </c>
       <c r="BN19">
@@ -4490,8 +4546,11 @@
         <v>40</v>
       </c>
       <c r="CZ19" s="41"/>
+      <c r="DA19">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A20" s="34"/>
       <c r="B20" s="35"/>
       <c r="D20" s="34"/>
@@ -4537,10 +4596,10 @@
       <c r="AV20" s="39"/>
       <c r="AW20" s="39"/>
       <c r="AX20" s="39"/>
-      <c r="AY20" s="44">
+      <c r="AY20" s="43">
         <v>28000000</v>
       </c>
-      <c r="AZ20" s="44">
+      <c r="AZ20" s="43">
         <v>3420000</v>
       </c>
       <c r="BA20" s="34"/>
@@ -4551,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="34"/>
-      <c r="BE20" s="44">
+      <c r="BE20" s="43">
         <v>3.1300000000000002E-5</v>
       </c>
-      <c r="BF20" s="44">
+      <c r="BF20" s="43">
         <v>8.1999999999999998E-7</v>
       </c>
       <c r="BH20">
@@ -4564,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="34"/>
-      <c r="BK20" s="44">
+      <c r="BK20" s="43">
         <v>1.6799999999999998E-5</v>
       </c>
-      <c r="BL20" s="44">
+      <c r="BL20" s="43">
         <v>2.7799999999999997E-7</v>
       </c>
       <c r="BN20">
@@ -4661,8 +4720,11 @@
         <v>40</v>
       </c>
       <c r="CZ20" s="41"/>
+      <c r="DA20">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A21" s="34"/>
       <c r="B21" s="35"/>
       <c r="D21" s="34"/>
@@ -4708,10 +4770,10 @@
       <c r="AV21" s="39"/>
       <c r="AW21" s="39"/>
       <c r="AX21" s="39"/>
-      <c r="AY21" s="44">
+      <c r="AY21" s="43">
         <v>26400000</v>
       </c>
-      <c r="AZ21" s="44">
+      <c r="AZ21" s="43">
         <v>813000</v>
       </c>
       <c r="BA21" s="34"/>
@@ -4722,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="34"/>
-      <c r="BE21" s="44">
+      <c r="BE21" s="43">
         <v>2.5299999999999998E-5</v>
       </c>
-      <c r="BF21" s="44">
+      <c r="BF21" s="43">
         <v>1.06E-6</v>
       </c>
       <c r="BH21">
@@ -4735,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="34"/>
-      <c r="BK21" s="44">
+      <c r="BK21" s="43">
         <v>1.6399999999999999E-5</v>
       </c>
-      <c r="BL21" s="44">
+      <c r="BL21" s="43">
         <v>3.9099999999999999E-7</v>
       </c>
       <c r="BN21">
@@ -4832,8 +4894,11 @@
         <v>40</v>
       </c>
       <c r="CZ21" s="41"/>
+      <c r="DA21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="D22" s="34"/>
@@ -4879,10 +4944,10 @@
       <c r="AV22" s="39"/>
       <c r="AW22" s="39"/>
       <c r="AX22" s="39"/>
-      <c r="AY22" s="44">
+      <c r="AY22" s="43">
         <v>22100000</v>
       </c>
-      <c r="AZ22" s="44">
+      <c r="AZ22" s="43">
         <v>1920000</v>
       </c>
       <c r="BA22" s="34"/>
@@ -4893,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="BD22" s="34"/>
-      <c r="BE22" s="44">
+      <c r="BE22" s="43">
         <v>3.5200000000000002E-5</v>
       </c>
-      <c r="BF22" s="44">
+      <c r="BF22" s="43">
         <v>1.55E-6</v>
       </c>
       <c r="BH22">
@@ -4906,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="34"/>
-      <c r="BK22" s="44">
+      <c r="BK22" s="43">
         <v>1.8899999999999999E-5</v>
       </c>
-      <c r="BL22" s="44">
+      <c r="BL22" s="43">
         <v>3.0600000000000001E-7</v>
       </c>
       <c r="BN22">
@@ -5003,8 +5068,11 @@
         <v>40</v>
       </c>
       <c r="CZ22" s="41"/>
+      <c r="DA22">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A23" s="34"/>
       <c r="B23" s="35"/>
       <c r="D23" s="34"/>
@@ -5050,10 +5118,10 @@
       <c r="AV23" s="39"/>
       <c r="AW23" s="39"/>
       <c r="AX23" s="39"/>
-      <c r="AY23" s="44">
+      <c r="AY23" s="43">
         <v>28200000</v>
       </c>
-      <c r="AZ23" s="44">
+      <c r="AZ23" s="43">
         <v>2420000</v>
       </c>
       <c r="BA23" s="34"/>
@@ -5064,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="34"/>
-      <c r="BE23" s="44">
+      <c r="BE23" s="43">
         <v>3.5200000000000002E-5</v>
       </c>
-      <c r="BF23" s="44">
+      <c r="BF23" s="43">
         <v>1.0899999999999999E-6</v>
       </c>
       <c r="BH23">
@@ -5077,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="34"/>
-      <c r="BK23" s="44">
+      <c r="BK23" s="43">
         <v>1.91E-5</v>
       </c>
-      <c r="BL23" s="44">
+      <c r="BL23" s="43">
         <v>3.1199999999999999E-7</v>
       </c>
       <c r="BN23">
@@ -5174,8 +5242,11 @@
         <v>40</v>
       </c>
       <c r="CZ23" s="41"/>
+      <c r="DA23">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A24" s="34"/>
       <c r="B24" s="35"/>
       <c r="D24" s="34"/>
@@ -5221,10 +5292,10 @@
       <c r="AV24" s="39"/>
       <c r="AW24" s="39"/>
       <c r="AX24" s="39"/>
-      <c r="AY24" s="44">
+      <c r="AY24" s="43">
         <v>35700000</v>
       </c>
-      <c r="AZ24" s="44">
+      <c r="AZ24" s="43">
         <v>875000</v>
       </c>
       <c r="BA24" s="34"/>
@@ -5235,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="34"/>
-      <c r="BE24" s="44">
+      <c r="BE24" s="43">
         <v>2.6299999999999999E-5</v>
       </c>
-      <c r="BF24" s="44">
+      <c r="BF24" s="43">
         <v>1.0100000000000001E-6</v>
       </c>
       <c r="BH24">
@@ -5248,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="34"/>
-      <c r="BK24" s="44">
+      <c r="BK24" s="43">
         <v>1.6799999999999998E-5</v>
       </c>
-      <c r="BL24" s="44">
+      <c r="BL24" s="43">
         <v>3.2399999999999999E-7</v>
       </c>
       <c r="BN24">
@@ -5345,8 +5416,11 @@
         <v>40</v>
       </c>
       <c r="CZ24" s="41"/>
+      <c r="DA24">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="D25" s="34"/>
@@ -5392,10 +5466,10 @@
       <c r="AV25" s="39"/>
       <c r="AW25" s="39"/>
       <c r="AX25" s="39"/>
-      <c r="AY25" s="44">
+      <c r="AY25" s="43">
         <v>44500000</v>
       </c>
-      <c r="AZ25" s="44">
+      <c r="AZ25" s="43">
         <v>2950000</v>
       </c>
       <c r="BA25" s="34"/>
@@ -5406,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="34"/>
-      <c r="BE25" s="44">
+      <c r="BE25" s="43">
         <v>2.97E-5</v>
       </c>
-      <c r="BF25" s="44">
+      <c r="BF25" s="43">
         <v>9.7999999999999993E-7</v>
       </c>
       <c r="BH25">
@@ -5419,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="34"/>
-      <c r="BK25" s="44">
+      <c r="BK25" s="43">
         <v>1.6399999999999999E-5</v>
       </c>
-      <c r="BL25" s="44">
+      <c r="BL25" s="43">
         <v>4.1300000000000001E-7</v>
       </c>
       <c r="BN25">
@@ -5516,8 +5590,11 @@
         <v>40</v>
       </c>
       <c r="CZ25" s="41"/>
+      <c r="DA25">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="D26" s="34"/>
@@ -5563,10 +5640,10 @@
       <c r="AV26" s="39"/>
       <c r="AW26" s="39"/>
       <c r="AX26" s="39"/>
-      <c r="AY26" s="44">
+      <c r="AY26" s="43">
         <v>31500000</v>
       </c>
-      <c r="AZ26" s="44">
+      <c r="AZ26" s="43">
         <v>2870000</v>
       </c>
       <c r="BA26" s="34"/>
@@ -5577,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="34"/>
-      <c r="BE26" s="44">
+      <c r="BE26" s="43">
         <v>2.9799999999999999E-5</v>
       </c>
-      <c r="BF26" s="44">
+      <c r="BF26" s="43">
         <v>8.7300000000000005E-7</v>
       </c>
       <c r="BH26">
@@ -5590,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="34"/>
-      <c r="BK26" s="44">
+      <c r="BK26" s="43">
         <v>1.8600000000000001E-5</v>
       </c>
-      <c r="BL26" s="44">
+      <c r="BL26" s="43">
         <v>3.4400000000000001E-7</v>
       </c>
       <c r="BN26">
@@ -5687,8 +5764,11 @@
         <v>40</v>
       </c>
       <c r="CZ26" s="41"/>
+      <c r="DA26">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
       <c r="D27" s="34"/>
@@ -5734,10 +5814,10 @@
       <c r="AV27" s="39"/>
       <c r="AW27" s="39"/>
       <c r="AX27" s="39"/>
-      <c r="AY27" s="44">
+      <c r="AY27" s="43">
         <v>51400000</v>
       </c>
-      <c r="AZ27" s="44">
+      <c r="AZ27" s="43">
         <v>1420000</v>
       </c>
       <c r="BA27" s="34"/>
@@ -5748,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="BD27" s="34"/>
-      <c r="BE27" s="44">
+      <c r="BE27" s="43">
         <v>2.2399999999999999E-5</v>
       </c>
-      <c r="BF27" s="44">
+      <c r="BF27" s="43">
         <v>8.16E-7</v>
       </c>
       <c r="BH27">
@@ -5761,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="34"/>
-      <c r="BK27" s="44">
+      <c r="BK27" s="43">
         <v>1.7099999999999999E-5</v>
       </c>
-      <c r="BL27" s="44">
+      <c r="BL27" s="43">
         <v>3.4799999999999999E-7</v>
       </c>
       <c r="BN27">
@@ -5858,8 +5938,11 @@
         <v>40</v>
       </c>
       <c r="CZ27" s="41"/>
+      <c r="DA27">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="D28" s="34"/>
@@ -5905,43 +5988,43 @@
       <c r="AV28" s="39"/>
       <c r="AW28" s="39"/>
       <c r="AX28" s="39"/>
-      <c r="AY28" s="44">
+      <c r="AY28" s="43">
         <v>50300000</v>
       </c>
-      <c r="AZ28" s="44">
+      <c r="AZ28" s="43">
         <v>6190000</v>
       </c>
       <c r="BA28" s="34"/>
-      <c r="BB28" s="44">
+      <c r="BB28" s="43">
         <v>50300000</v>
       </c>
-      <c r="BC28" s="44">
+      <c r="BC28" s="43">
         <v>6190000</v>
       </c>
       <c r="BD28" s="34"/>
-      <c r="BE28" s="44">
+      <c r="BE28" s="43">
         <v>2.3300000000000001E-5</v>
       </c>
-      <c r="BF28" s="44">
+      <c r="BF28" s="43">
         <v>8.5600000000000004E-7</v>
       </c>
-      <c r="BH28" s="44">
+      <c r="BH28" s="43">
         <v>2.3300000000000001E-5</v>
       </c>
-      <c r="BI28" s="44">
+      <c r="BI28" s="43">
         <v>8.5600000000000004E-7</v>
       </c>
       <c r="BJ28" s="34"/>
-      <c r="BK28" s="44">
+      <c r="BK28" s="43">
         <v>1.2799999999999999E-5</v>
       </c>
-      <c r="BL28" s="44">
+      <c r="BL28" s="43">
         <v>5.4499999999999997E-7</v>
       </c>
-      <c r="BN28" s="44">
+      <c r="BN28" s="43">
         <v>1.2799999999999999E-5</v>
       </c>
-      <c r="BO28" s="44">
+      <c r="BO28" s="43">
         <v>5.4499999999999997E-7</v>
       </c>
       <c r="BP28" s="34"/>
@@ -6029,8 +6112,11 @@
         <v>40</v>
       </c>
       <c r="CZ28" s="41"/>
+      <c r="DA28">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A29" s="34"/>
       <c r="B29" s="35"/>
       <c r="D29" s="34"/>
@@ -6076,43 +6162,43 @@
       <c r="AV29" s="39"/>
       <c r="AW29" s="39"/>
       <c r="AX29" s="39"/>
-      <c r="AY29" s="44">
+      <c r="AY29" s="43">
         <v>59800000</v>
       </c>
-      <c r="AZ29" s="44">
+      <c r="AZ29" s="43">
         <v>3340000</v>
       </c>
       <c r="BA29" s="34"/>
-      <c r="BB29" s="44">
+      <c r="BB29" s="43">
         <v>59800000</v>
       </c>
-      <c r="BC29" s="44">
+      <c r="BC29" s="43">
         <v>3340000</v>
       </c>
       <c r="BD29" s="34"/>
-      <c r="BE29" s="44">
+      <c r="BE29" s="43">
         <v>2.1100000000000001E-5</v>
       </c>
-      <c r="BF29" s="44">
+      <c r="BF29" s="43">
         <v>7.5799999999999998E-7</v>
       </c>
-      <c r="BH29" s="44">
+      <c r="BH29" s="43">
         <v>2.1100000000000001E-5</v>
       </c>
-      <c r="BI29" s="44">
+      <c r="BI29" s="43">
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="BJ29" s="34"/>
-      <c r="BK29" s="44">
+      <c r="BK29" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BL29" s="44">
+      <c r="BL29" s="43">
         <v>1.91E-7</v>
       </c>
-      <c r="BN29" s="44">
+      <c r="BN29" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BO29" s="44">
+      <c r="BO29" s="43">
         <v>1.91E-7</v>
       </c>
       <c r="BP29" s="34"/>
@@ -6200,8 +6286,11 @@
         <v>40</v>
       </c>
       <c r="CZ29" s="41"/>
+      <c r="DA29">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="D30" s="34"/>
@@ -6247,43 +6336,43 @@
       <c r="AV30" s="39"/>
       <c r="AW30" s="39"/>
       <c r="AX30" s="39"/>
-      <c r="AY30" s="44">
+      <c r="AY30" s="43">
         <v>47000000</v>
       </c>
-      <c r="AZ30" s="44">
+      <c r="AZ30" s="43">
         <v>3730000</v>
       </c>
       <c r="BA30" s="34"/>
-      <c r="BB30" s="44">
+      <c r="BB30" s="43">
         <v>47000000</v>
       </c>
-      <c r="BC30" s="44">
+      <c r="BC30" s="43">
         <v>3730000</v>
       </c>
       <c r="BD30" s="34"/>
-      <c r="BE30" s="44">
+      <c r="BE30" s="43">
         <v>2.0599999999999999E-5</v>
       </c>
-      <c r="BF30" s="44">
+      <c r="BF30" s="43">
         <v>3.4799999999999999E-7</v>
       </c>
-      <c r="BH30" s="44">
+      <c r="BH30" s="43">
         <v>2.0599999999999999E-5</v>
       </c>
-      <c r="BI30" s="44">
+      <c r="BI30" s="43">
         <v>3.4799999999999999E-7</v>
       </c>
       <c r="BJ30" s="34"/>
-      <c r="BK30" s="44">
+      <c r="BK30" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BL30" s="44">
+      <c r="BL30" s="43">
         <v>2.29E-7</v>
       </c>
-      <c r="BN30" s="44">
+      <c r="BN30" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BO30" s="44">
+      <c r="BO30" s="43">
         <v>2.29E-7</v>
       </c>
       <c r="BP30" s="34"/>
@@ -6371,8 +6460,11 @@
         <v>40</v>
       </c>
       <c r="CZ30" s="41"/>
+      <c r="DA30">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="D31" s="34"/>
@@ -6418,43 +6510,43 @@
       <c r="AV31" s="39"/>
       <c r="AW31" s="39"/>
       <c r="AX31" s="39"/>
-      <c r="AY31" s="44">
+      <c r="AY31" s="43">
         <v>59600000</v>
       </c>
-      <c r="AZ31" s="44">
+      <c r="AZ31" s="43">
         <v>3880000</v>
       </c>
       <c r="BA31" s="34"/>
-      <c r="BB31" s="44">
+      <c r="BB31" s="43">
         <v>59600000</v>
       </c>
-      <c r="BC31" s="44">
+      <c r="BC31" s="43">
         <v>3880000</v>
       </c>
       <c r="BD31" s="34"/>
-      <c r="BE31" s="44">
+      <c r="BE31" s="43">
         <v>1.7900000000000001E-5</v>
       </c>
-      <c r="BF31" s="44">
+      <c r="BF31" s="43">
         <v>5.8699999999999995E-7</v>
       </c>
-      <c r="BH31" s="44">
+      <c r="BH31" s="43">
         <v>1.7900000000000001E-5</v>
       </c>
-      <c r="BI31" s="44">
+      <c r="BI31" s="43">
         <v>5.8699999999999995E-7</v>
       </c>
       <c r="BJ31" s="34"/>
-      <c r="BK31" s="44">
+      <c r="BK31" s="43">
         <v>1.15E-5</v>
       </c>
-      <c r="BL31" s="44">
+      <c r="BL31" s="43">
         <v>3.0499999999999999E-7</v>
       </c>
-      <c r="BN31" s="44">
+      <c r="BN31" s="43">
         <v>1.15E-5</v>
       </c>
-      <c r="BO31" s="44">
+      <c r="BO31" s="43">
         <v>3.0499999999999999E-7</v>
       </c>
       <c r="BP31" s="34"/>
@@ -6542,8 +6634,11 @@
         <v>40</v>
       </c>
       <c r="CZ31" s="41"/>
+      <c r="DA31">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A32" s="34"/>
       <c r="B32" s="35"/>
       <c r="D32" s="34"/>
@@ -6589,43 +6684,43 @@
       <c r="AV32" s="39"/>
       <c r="AW32" s="39"/>
       <c r="AX32" s="39"/>
-      <c r="AY32" s="44">
+      <c r="AY32" s="43">
         <v>63000000</v>
       </c>
-      <c r="AZ32" s="44">
+      <c r="AZ32" s="43">
         <v>2050000</v>
       </c>
       <c r="BA32" s="34"/>
-      <c r="BB32" s="44">
+      <c r="BB32" s="43">
         <v>63000000</v>
       </c>
-      <c r="BC32" s="44">
+      <c r="BC32" s="43">
         <v>2050000</v>
       </c>
       <c r="BD32" s="34"/>
-      <c r="BE32" s="44">
+      <c r="BE32" s="43">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BF32" s="44">
+      <c r="BF32" s="43">
         <v>1.17E-6</v>
       </c>
-      <c r="BH32" s="44">
+      <c r="BH32" s="43">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BI32" s="44">
+      <c r="BI32" s="43">
         <v>1.17E-6</v>
       </c>
       <c r="BJ32" s="34"/>
-      <c r="BK32" s="44">
+      <c r="BK32" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BL32" s="44">
+      <c r="BL32" s="43">
         <v>3.0400000000000002E-7</v>
       </c>
-      <c r="BN32" s="44">
+      <c r="BN32" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BO32" s="44">
+      <c r="BO32" s="43">
         <v>3.0400000000000002E-7</v>
       </c>
       <c r="BP32" s="34"/>
@@ -6713,8 +6808,11 @@
         <v>40</v>
       </c>
       <c r="CZ32" s="41"/>
+      <c r="DA32">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A33" s="34"/>
       <c r="B33" s="35"/>
       <c r="D33" s="34"/>
@@ -6760,43 +6858,43 @@
       <c r="AV33" s="39"/>
       <c r="AW33" s="39"/>
       <c r="AX33" s="39"/>
-      <c r="AY33" s="44">
+      <c r="AY33" s="43">
         <v>68700000</v>
       </c>
-      <c r="AZ33" s="44">
+      <c r="AZ33" s="43">
         <v>2450000</v>
       </c>
       <c r="BA33" s="34"/>
-      <c r="BB33" s="44">
+      <c r="BB33" s="43">
         <v>68700000</v>
       </c>
-      <c r="BC33" s="44">
+      <c r="BC33" s="43">
         <v>2450000</v>
       </c>
       <c r="BD33" s="34"/>
-      <c r="BE33" s="44">
+      <c r="BE33" s="43">
         <v>1.7099999999999999E-5</v>
       </c>
-      <c r="BF33" s="44">
+      <c r="BF33" s="43">
         <v>4.9200000000000001E-7</v>
       </c>
-      <c r="BH33" s="44">
+      <c r="BH33" s="43">
         <v>1.7099999999999999E-5</v>
       </c>
-      <c r="BI33" s="44">
+      <c r="BI33" s="43">
         <v>4.9200000000000001E-7</v>
       </c>
       <c r="BJ33" s="34"/>
-      <c r="BK33" s="44">
+      <c r="BK33" s="43">
         <v>1.22E-5</v>
       </c>
-      <c r="BL33" s="44">
+      <c r="BL33" s="43">
         <v>2.4600000000000001E-7</v>
       </c>
-      <c r="BN33" s="44">
+      <c r="BN33" s="43">
         <v>1.22E-5</v>
       </c>
-      <c r="BO33" s="44">
+      <c r="BO33" s="43">
         <v>2.4600000000000001E-7</v>
       </c>
       <c r="BP33" s="34"/>
@@ -6884,8 +6982,11 @@
         <v>40</v>
       </c>
       <c r="CZ33" s="41"/>
+      <c r="DA33">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A34" s="34"/>
       <c r="B34" s="35"/>
       <c r="D34" s="34"/>
@@ -6931,43 +7032,43 @@
       <c r="AV34" s="39"/>
       <c r="AW34" s="39"/>
       <c r="AX34" s="39"/>
-      <c r="AY34" s="44">
+      <c r="AY34" s="43">
         <v>51200000</v>
       </c>
-      <c r="AZ34" s="44">
+      <c r="AZ34" s="43">
         <v>6030000</v>
       </c>
       <c r="BA34" s="34"/>
-      <c r="BB34" s="44">
+      <c r="BB34" s="43">
         <v>51200000</v>
       </c>
-      <c r="BC34" s="44">
+      <c r="BC34" s="43">
         <v>6030000</v>
       </c>
       <c r="BD34" s="34"/>
-      <c r="BE34" s="44">
+      <c r="BE34" s="43">
         <v>2.1800000000000001E-5</v>
       </c>
-      <c r="BF34" s="44">
+      <c r="BF34" s="43">
         <v>8.8899999999999998E-7</v>
       </c>
-      <c r="BH34" s="44">
+      <c r="BH34" s="43">
         <v>2.1800000000000001E-5</v>
       </c>
-      <c r="BI34" s="44">
+      <c r="BI34" s="43">
         <v>8.8899999999999998E-7</v>
       </c>
       <c r="BJ34" s="34"/>
-      <c r="BK34" s="44">
+      <c r="BK34" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BL34" s="44">
+      <c r="BL34" s="43">
         <v>2.8200000000000001E-7</v>
       </c>
-      <c r="BN34" s="44">
+      <c r="BN34" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BO34" s="44">
+      <c r="BO34" s="43">
         <v>2.8200000000000001E-7</v>
       </c>
       <c r="BP34" s="34"/>
@@ -7055,8 +7156,11 @@
         <v>40</v>
       </c>
       <c r="CZ34" s="41"/>
+      <c r="DA34">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="D35" s="34"/>
@@ -7102,43 +7206,43 @@
       <c r="AV35" s="39"/>
       <c r="AW35" s="39"/>
       <c r="AX35" s="39"/>
-      <c r="AY35" s="44">
+      <c r="AY35" s="43">
         <v>61800000</v>
       </c>
-      <c r="AZ35" s="44">
+      <c r="AZ35" s="43">
         <v>5490000</v>
       </c>
       <c r="BA35" s="34"/>
-      <c r="BB35" s="44">
+      <c r="BB35" s="43">
         <v>61800000</v>
       </c>
-      <c r="BC35" s="44">
+      <c r="BC35" s="43">
         <v>5490000</v>
       </c>
       <c r="BD35" s="34"/>
-      <c r="BE35" s="44">
+      <c r="BE35" s="43">
         <v>1.8E-5</v>
       </c>
-      <c r="BF35" s="44">
+      <c r="BF35" s="43">
         <v>7.0800000000000004E-7</v>
       </c>
-      <c r="BH35" s="44">
+      <c r="BH35" s="43">
         <v>1.8E-5</v>
       </c>
-      <c r="BI35" s="44">
+      <c r="BI35" s="43">
         <v>7.0800000000000004E-7</v>
       </c>
       <c r="BJ35" s="34"/>
-      <c r="BK35" s="44">
+      <c r="BK35" s="43">
         <v>1.2099999999999999E-5</v>
       </c>
-      <c r="BL35" s="44">
+      <c r="BL35" s="43">
         <v>1.72E-7</v>
       </c>
-      <c r="BN35" s="44">
+      <c r="BN35" s="43">
         <v>1.2099999999999999E-5</v>
       </c>
-      <c r="BO35" s="44">
+      <c r="BO35" s="43">
         <v>1.72E-7</v>
       </c>
       <c r="BP35" s="34"/>
@@ -7226,8 +7330,11 @@
         <v>40</v>
       </c>
       <c r="CZ35" s="41"/>
+      <c r="DA35">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A36" s="34"/>
       <c r="B36" s="35"/>
       <c r="D36" s="34"/>
@@ -7273,43 +7380,43 @@
       <c r="AV36" s="39"/>
       <c r="AW36" s="39"/>
       <c r="AX36" s="39"/>
-      <c r="AY36" s="44">
+      <c r="AY36" s="43">
         <v>57500000</v>
       </c>
-      <c r="AZ36" s="44">
+      <c r="AZ36" s="43">
         <v>7910000</v>
       </c>
       <c r="BA36" s="34"/>
-      <c r="BB36" s="44">
+      <c r="BB36" s="43">
         <v>57500000</v>
       </c>
-      <c r="BC36" s="44">
+      <c r="BC36" s="43">
         <v>7910000</v>
       </c>
       <c r="BD36" s="34"/>
-      <c r="BE36" s="44">
+      <c r="BE36" s="43">
         <v>1.9700000000000001E-5</v>
       </c>
-      <c r="BF36" s="44">
+      <c r="BF36" s="43">
         <v>7.2799999999999995E-7</v>
       </c>
-      <c r="BH36" s="44">
+      <c r="BH36" s="43">
         <v>1.9700000000000001E-5</v>
       </c>
-      <c r="BI36" s="44">
+      <c r="BI36" s="43">
         <v>7.2799999999999995E-7</v>
       </c>
       <c r="BJ36" s="34"/>
-      <c r="BK36" s="44">
+      <c r="BK36" s="43">
         <v>1.0499999999999999E-5</v>
       </c>
-      <c r="BL36" s="44">
+      <c r="BL36" s="43">
         <v>2.9700000000000003E-7</v>
       </c>
-      <c r="BN36" s="44">
+      <c r="BN36" s="43">
         <v>1.0499999999999999E-5</v>
       </c>
-      <c r="BO36" s="44">
+      <c r="BO36" s="43">
         <v>2.9700000000000003E-7</v>
       </c>
       <c r="BP36" s="34"/>
@@ -7397,8 +7504,11 @@
         <v>40</v>
       </c>
       <c r="CZ36" s="41"/>
+      <c r="DA36">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A37" s="34"/>
       <c r="B37" s="35"/>
       <c r="D37" s="34"/>
@@ -7444,43 +7554,43 @@
       <c r="AV37" s="39"/>
       <c r="AW37" s="39"/>
       <c r="AX37" s="39"/>
-      <c r="AY37" s="44">
+      <c r="AY37" s="43">
         <v>47200000</v>
       </c>
-      <c r="AZ37" s="44">
+      <c r="AZ37" s="43">
         <v>6500000</v>
       </c>
       <c r="BA37" s="34"/>
-      <c r="BB37" s="44">
+      <c r="BB37" s="43">
         <v>47200000</v>
       </c>
-      <c r="BC37" s="44">
+      <c r="BC37" s="43">
         <v>6500000</v>
       </c>
       <c r="BD37" s="34"/>
-      <c r="BE37" s="44">
+      <c r="BE37" s="43">
         <v>2.2200000000000001E-5</v>
       </c>
-      <c r="BF37" s="44">
+      <c r="BF37" s="43">
         <v>6.3600000000000003E-7</v>
       </c>
-      <c r="BH37" s="44">
+      <c r="BH37" s="43">
         <v>2.2200000000000001E-5</v>
       </c>
-      <c r="BI37" s="44">
+      <c r="BI37" s="43">
         <v>6.3600000000000003E-7</v>
       </c>
       <c r="BJ37" s="34"/>
-      <c r="BK37" s="44">
+      <c r="BK37" s="43">
         <v>1.26E-5</v>
       </c>
-      <c r="BL37" s="44">
+      <c r="BL37" s="43">
         <v>2.67E-7</v>
       </c>
-      <c r="BN37" s="44">
+      <c r="BN37" s="43">
         <v>1.26E-5</v>
       </c>
-      <c r="BO37" s="44">
+      <c r="BO37" s="43">
         <v>2.67E-7</v>
       </c>
       <c r="BP37" s="34"/>
@@ -7568,8 +7678,11 @@
         <v>40</v>
       </c>
       <c r="CZ37" s="41"/>
+      <c r="DA37">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A38" s="34"/>
       <c r="B38" s="35"/>
       <c r="D38" s="34"/>
@@ -7615,43 +7728,43 @@
       <c r="AV38" s="39"/>
       <c r="AW38" s="39"/>
       <c r="AX38" s="39"/>
-      <c r="AY38" s="44">
+      <c r="AY38" s="43">
         <v>73500000</v>
       </c>
-      <c r="AZ38" s="44">
+      <c r="AZ38" s="43">
         <v>2250000</v>
       </c>
       <c r="BA38" s="34"/>
-      <c r="BB38" s="44">
+      <c r="BB38" s="43">
         <v>73500000</v>
       </c>
-      <c r="BC38" s="44">
+      <c r="BC38" s="43">
         <v>2250000</v>
       </c>
       <c r="BD38" s="34"/>
-      <c r="BE38" s="44">
+      <c r="BE38" s="43">
         <v>2.0299999999999999E-5</v>
       </c>
-      <c r="BF38" s="44">
+      <c r="BF38" s="43">
         <v>9.4200000000000004E-7</v>
       </c>
-      <c r="BH38" s="44">
+      <c r="BH38" s="43">
         <v>2.0299999999999999E-5</v>
       </c>
-      <c r="BI38" s="44">
+      <c r="BI38" s="43">
         <v>9.4200000000000004E-7</v>
       </c>
       <c r="BJ38" s="34"/>
-      <c r="BK38" s="44">
+      <c r="BK38" s="43">
         <v>1.15E-5</v>
       </c>
-      <c r="BL38" s="44">
+      <c r="BL38" s="43">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="BN38" s="44">
+      <c r="BN38" s="43">
         <v>1.15E-5</v>
       </c>
-      <c r="BO38" s="44">
+      <c r="BO38" s="43">
         <v>2.2499999999999999E-7</v>
       </c>
       <c r="BP38" s="34"/>
@@ -7739,8 +7852,11 @@
         <v>40</v>
       </c>
       <c r="CZ38" s="41"/>
+      <c r="DA38">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A39" s="34"/>
       <c r="B39" s="35"/>
       <c r="D39" s="34"/>
@@ -7786,43 +7902,43 @@
       <c r="AV39" s="39"/>
       <c r="AW39" s="39"/>
       <c r="AX39" s="39"/>
-      <c r="AY39" s="44">
+      <c r="AY39" s="43">
         <v>59000000</v>
       </c>
-      <c r="AZ39" s="44">
+      <c r="AZ39" s="43">
         <v>3590000</v>
       </c>
       <c r="BA39" s="34"/>
-      <c r="BB39" s="44">
+      <c r="BB39" s="43">
         <v>59000000</v>
       </c>
-      <c r="BC39" s="44">
+      <c r="BC39" s="43">
         <v>3590000</v>
       </c>
       <c r="BD39" s="34"/>
-      <c r="BE39" s="44">
+      <c r="BE39" s="43">
         <v>2.1500000000000001E-5</v>
       </c>
-      <c r="BF39" s="44">
+      <c r="BF39" s="43">
         <v>6.8500000000000001E-7</v>
       </c>
-      <c r="BH39" s="44">
+      <c r="BH39" s="43">
         <v>2.1500000000000001E-5</v>
       </c>
-      <c r="BI39" s="44">
+      <c r="BI39" s="43">
         <v>6.8500000000000001E-7</v>
       </c>
       <c r="BJ39" s="34"/>
-      <c r="BK39" s="44">
+      <c r="BK39" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BL39" s="44">
+      <c r="BL39" s="43">
         <v>2.79E-7</v>
       </c>
-      <c r="BN39" s="44">
+      <c r="BN39" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BO39" s="44">
+      <c r="BO39" s="43">
         <v>2.79E-7</v>
       </c>
       <c r="BP39" s="34"/>
@@ -7910,8 +8026,11 @@
         <v>40</v>
       </c>
       <c r="CZ39" s="41"/>
+      <c r="DA39">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A40" s="34"/>
       <c r="B40" s="35"/>
       <c r="D40" s="34"/>
@@ -7957,43 +8076,43 @@
       <c r="AV40" s="39"/>
       <c r="AW40" s="39"/>
       <c r="AX40" s="39"/>
-      <c r="AY40" s="44">
+      <c r="AY40" s="43">
         <v>52900000</v>
       </c>
-      <c r="AZ40" s="44">
+      <c r="AZ40" s="43">
         <v>8790000</v>
       </c>
       <c r="BA40" s="34"/>
-      <c r="BB40" s="44">
+      <c r="BB40" s="43">
         <v>52900000</v>
       </c>
-      <c r="BC40" s="44">
+      <c r="BC40" s="43">
         <v>8790000</v>
       </c>
       <c r="BD40" s="34"/>
-      <c r="BE40" s="44">
+      <c r="BE40" s="43">
         <v>2.0599999999999999E-5</v>
       </c>
-      <c r="BF40" s="44">
+      <c r="BF40" s="43">
         <v>7.8400000000000003E-7</v>
       </c>
-      <c r="BH40" s="44">
+      <c r="BH40" s="43">
         <v>2.0599999999999999E-5</v>
       </c>
-      <c r="BI40" s="44">
+      <c r="BI40" s="43">
         <v>7.8400000000000003E-7</v>
       </c>
       <c r="BJ40" s="34"/>
-      <c r="BK40" s="44">
+      <c r="BK40" s="43">
         <v>1.1800000000000001E-5</v>
       </c>
-      <c r="BL40" s="44">
+      <c r="BL40" s="43">
         <v>1.4600000000000001E-7</v>
       </c>
-      <c r="BN40" s="44">
+      <c r="BN40" s="43">
         <v>1.1800000000000001E-5</v>
       </c>
-      <c r="BO40" s="44">
+      <c r="BO40" s="43">
         <v>1.4600000000000001E-7</v>
       </c>
       <c r="BP40" s="34"/>
@@ -8081,8 +8200,11 @@
         <v>40</v>
       </c>
       <c r="CZ40" s="41"/>
+      <c r="DA40">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A41" s="34"/>
       <c r="B41" s="35"/>
       <c r="D41" s="34"/>
@@ -8128,43 +8250,43 @@
       <c r="AV41" s="39"/>
       <c r="AW41" s="39"/>
       <c r="AX41" s="39"/>
-      <c r="AY41" s="44">
+      <c r="AY41" s="43">
         <v>52900000</v>
       </c>
-      <c r="AZ41" s="44">
+      <c r="AZ41" s="43">
         <v>3200000</v>
       </c>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="44">
+      <c r="BB41" s="43">
         <v>52900000</v>
       </c>
-      <c r="BC41" s="44">
+      <c r="BC41" s="43">
         <v>3200000</v>
       </c>
       <c r="BD41" s="34"/>
-      <c r="BE41" s="44">
+      <c r="BE41" s="43">
         <v>2.05E-5</v>
       </c>
-      <c r="BF41" s="44">
+      <c r="BF41" s="43">
         <v>5.4600000000000005E-7</v>
       </c>
-      <c r="BH41" s="44">
+      <c r="BH41" s="43">
         <v>2.05E-5</v>
       </c>
-      <c r="BI41" s="44">
+      <c r="BI41" s="43">
         <v>5.4600000000000005E-7</v>
       </c>
       <c r="BJ41" s="34"/>
-      <c r="BK41" s="44">
+      <c r="BK41" s="43">
         <v>1.19E-5</v>
       </c>
-      <c r="BL41" s="44">
+      <c r="BL41" s="43">
         <v>2.5899999999999998E-7</v>
       </c>
-      <c r="BN41" s="44">
+      <c r="BN41" s="43">
         <v>1.19E-5</v>
       </c>
-      <c r="BO41" s="44">
+      <c r="BO41" s="43">
         <v>2.5899999999999998E-7</v>
       </c>
       <c r="BP41" s="34"/>
@@ -8252,8 +8374,11 @@
         <v>40</v>
       </c>
       <c r="CZ41" s="41"/>
+      <c r="DA41">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A42" s="34"/>
       <c r="B42" s="35"/>
       <c r="D42" s="34"/>
@@ -8299,43 +8424,43 @@
       <c r="AV42" s="39"/>
       <c r="AW42" s="39"/>
       <c r="AX42" s="39"/>
-      <c r="AY42" s="44">
+      <c r="AY42" s="43">
         <v>54700000</v>
       </c>
-      <c r="AZ42" s="44">
+      <c r="AZ42" s="43">
         <v>3790000</v>
       </c>
       <c r="BA42" s="34"/>
-      <c r="BB42" s="44">
+      <c r="BB42" s="43">
         <v>54700000</v>
       </c>
-      <c r="BC42" s="44">
+      <c r="BC42" s="43">
         <v>3790000</v>
       </c>
       <c r="BD42" s="34"/>
-      <c r="BE42" s="44">
+      <c r="BE42" s="43">
         <v>1.7900000000000001E-5</v>
       </c>
-      <c r="BF42" s="44">
+      <c r="BF42" s="43">
         <v>8.23E-7</v>
       </c>
-      <c r="BH42" s="44">
+      <c r="BH42" s="43">
         <v>1.7900000000000001E-5</v>
       </c>
-      <c r="BI42" s="44">
+      <c r="BI42" s="43">
         <v>8.23E-7</v>
       </c>
       <c r="BJ42" s="34"/>
-      <c r="BK42" s="44">
+      <c r="BK42" s="43">
         <v>1.2E-5</v>
       </c>
-      <c r="BL42" s="44">
+      <c r="BL42" s="43">
         <v>2.7799999999999997E-7</v>
       </c>
-      <c r="BN42" s="44">
+      <c r="BN42" s="43">
         <v>1.2E-5</v>
       </c>
-      <c r="BO42" s="44">
+      <c r="BO42" s="43">
         <v>2.7799999999999997E-7</v>
       </c>
       <c r="BP42" s="34"/>
@@ -8423,8 +8548,11 @@
         <v>40</v>
       </c>
       <c r="CZ42" s="41"/>
+      <c r="DA42">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A43" s="34"/>
       <c r="B43" s="35"/>
       <c r="D43" s="34"/>
@@ -8470,43 +8598,43 @@
       <c r="AV43" s="39"/>
       <c r="AW43" s="39"/>
       <c r="AX43" s="39"/>
-      <c r="AY43" s="44">
+      <c r="AY43" s="43">
         <v>65000000</v>
       </c>
-      <c r="AZ43" s="44">
+      <c r="AZ43" s="43">
         <v>2110000</v>
       </c>
       <c r="BA43" s="34"/>
-      <c r="BB43" s="44">
+      <c r="BB43" s="43">
         <v>65000000</v>
       </c>
-      <c r="BC43" s="44">
+      <c r="BC43" s="43">
         <v>2110000</v>
       </c>
       <c r="BD43" s="34"/>
-      <c r="BE43" s="44">
+      <c r="BE43" s="43">
         <v>2.37E-5</v>
       </c>
-      <c r="BF43" s="44">
+      <c r="BF43" s="43">
         <v>7.7000000000000004E-7</v>
       </c>
-      <c r="BH43" s="44">
+      <c r="BH43" s="43">
         <v>2.37E-5</v>
       </c>
-      <c r="BI43" s="44">
+      <c r="BI43" s="43">
         <v>7.7000000000000004E-7</v>
       </c>
       <c r="BJ43" s="34"/>
-      <c r="BK43" s="44">
+      <c r="BK43" s="43">
         <v>1.4E-5</v>
       </c>
-      <c r="BL43" s="44">
+      <c r="BL43" s="43">
         <v>2.0100000000000001E-7</v>
       </c>
-      <c r="BN43" s="44">
+      <c r="BN43" s="43">
         <v>1.4E-5</v>
       </c>
-      <c r="BO43" s="44">
+      <c r="BO43" s="43">
         <v>2.0100000000000001E-7</v>
       </c>
       <c r="BP43" s="34"/>
@@ -8594,8 +8722,11 @@
         <v>40</v>
       </c>
       <c r="CZ43" s="41"/>
+      <c r="DA43">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A44" s="34"/>
       <c r="B44" s="35"/>
       <c r="D44" s="34"/>
@@ -8641,43 +8772,43 @@
       <c r="AV44" s="39"/>
       <c r="AW44" s="39"/>
       <c r="AX44" s="39"/>
-      <c r="AY44" s="44">
+      <c r="AY44" s="43">
         <v>57600000</v>
       </c>
-      <c r="AZ44" s="44">
+      <c r="AZ44" s="43">
         <v>5370000</v>
       </c>
       <c r="BA44" s="34"/>
-      <c r="BB44" s="44">
+      <c r="BB44" s="43">
         <v>57600000</v>
       </c>
-      <c r="BC44" s="44">
+      <c r="BC44" s="43">
         <v>5370000</v>
       </c>
       <c r="BD44" s="34"/>
-      <c r="BE44" s="44">
+      <c r="BE44" s="43">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="BF44" s="44">
+      <c r="BF44" s="43">
         <v>6.92E-7</v>
       </c>
-      <c r="BH44" s="44">
+      <c r="BH44" s="43">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="BI44" s="44">
+      <c r="BI44" s="43">
         <v>6.92E-7</v>
       </c>
       <c r="BJ44" s="34"/>
-      <c r="BK44" s="44">
+      <c r="BK44" s="43">
         <v>1.27E-5</v>
       </c>
-      <c r="BL44" s="44">
+      <c r="BL44" s="43">
         <v>3.1100000000000002E-7</v>
       </c>
-      <c r="BN44" s="44">
+      <c r="BN44" s="43">
         <v>1.27E-5</v>
       </c>
-      <c r="BO44" s="44">
+      <c r="BO44" s="43">
         <v>3.1100000000000002E-7</v>
       </c>
       <c r="BP44" s="34"/>
@@ -8765,8 +8896,11 @@
         <v>40</v>
       </c>
       <c r="CZ44" s="41"/>
+      <c r="DA44">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A45" s="34"/>
       <c r="B45" s="35"/>
       <c r="D45" s="34"/>
@@ -8812,43 +8946,43 @@
       <c r="AV45" s="39"/>
       <c r="AW45" s="39"/>
       <c r="AX45" s="39"/>
-      <c r="AY45" s="44">
+      <c r="AY45" s="43">
         <v>57800000</v>
       </c>
-      <c r="AZ45" s="44">
+      <c r="AZ45" s="43">
         <v>6350000</v>
       </c>
       <c r="BA45" s="34"/>
-      <c r="BB45" s="44">
+      <c r="BB45" s="43">
         <v>57800000</v>
       </c>
-      <c r="BC45" s="44">
+      <c r="BC45" s="43">
         <v>6350000</v>
       </c>
       <c r="BD45" s="34"/>
-      <c r="BE45" s="44">
+      <c r="BE45" s="43">
         <v>1.63E-5</v>
       </c>
-      <c r="BF45" s="44">
+      <c r="BF45" s="43">
         <v>4.3300000000000003E-7</v>
       </c>
-      <c r="BH45" s="44">
+      <c r="BH45" s="43">
         <v>1.63E-5</v>
       </c>
-      <c r="BI45" s="44">
+      <c r="BI45" s="43">
         <v>4.3300000000000003E-7</v>
       </c>
       <c r="BJ45" s="34"/>
-      <c r="BK45" s="44">
+      <c r="BK45" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BL45" s="44">
+      <c r="BL45" s="43">
         <v>5.8599999999999998E-7</v>
       </c>
-      <c r="BN45" s="44">
+      <c r="BN45" s="43">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="BO45" s="44">
+      <c r="BO45" s="43">
         <v>5.8599999999999998E-7</v>
       </c>
       <c r="BP45" s="34"/>
@@ -8936,8 +9070,11 @@
         <v>40</v>
       </c>
       <c r="CZ45" s="41"/>
+      <c r="DA45">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A46" s="34"/>
       <c r="B46" s="35"/>
       <c r="D46" s="34"/>
@@ -8983,43 +9120,43 @@
       <c r="AV46" s="39"/>
       <c r="AW46" s="39"/>
       <c r="AX46" s="39"/>
-      <c r="AY46" s="44">
+      <c r="AY46" s="43">
         <v>49000000</v>
       </c>
-      <c r="AZ46" s="44">
+      <c r="AZ46" s="43">
         <v>8730000</v>
       </c>
       <c r="BA46" s="34"/>
-      <c r="BB46" s="44">
+      <c r="BB46" s="43">
         <v>49000000</v>
       </c>
-      <c r="BC46" s="44">
+      <c r="BC46" s="43">
         <v>8730000</v>
       </c>
       <c r="BD46" s="34"/>
-      <c r="BE46" s="44">
+      <c r="BE46" s="43">
         <v>1.88E-5</v>
       </c>
-      <c r="BF46" s="44">
+      <c r="BF46" s="43">
         <v>3.6899999999999998E-7</v>
       </c>
-      <c r="BH46" s="44">
+      <c r="BH46" s="43">
         <v>1.88E-5</v>
       </c>
-      <c r="BI46" s="44">
+      <c r="BI46" s="43">
         <v>3.6899999999999998E-7</v>
       </c>
       <c r="BJ46" s="34"/>
-      <c r="BK46" s="44">
+      <c r="BK46" s="43">
         <v>1.2799999999999999E-5</v>
       </c>
-      <c r="BL46" s="44">
+      <c r="BL46" s="43">
         <v>2.2999999999999999E-7</v>
       </c>
-      <c r="BN46" s="44">
+      <c r="BN46" s="43">
         <v>1.2799999999999999E-5</v>
       </c>
-      <c r="BO46" s="44">
+      <c r="BO46" s="43">
         <v>2.2999999999999999E-7</v>
       </c>
       <c r="BP46" s="34"/>
@@ -9107,8 +9244,11 @@
         <v>40</v>
       </c>
       <c r="CZ46" s="41"/>
+      <c r="DA46">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A47" s="34"/>
       <c r="B47" s="35"/>
       <c r="D47" s="34"/>
@@ -9154,43 +9294,43 @@
       <c r="AV47" s="39"/>
       <c r="AW47" s="39"/>
       <c r="AX47" s="39"/>
-      <c r="AY47" s="44">
+      <c r="AY47" s="43">
         <v>49900000</v>
       </c>
-      <c r="AZ47" s="44">
+      <c r="AZ47" s="43">
         <v>2100000</v>
       </c>
       <c r="BA47" s="34"/>
-      <c r="BB47" s="44">
+      <c r="BB47" s="43">
         <v>49900000</v>
       </c>
-      <c r="BC47" s="44">
+      <c r="BC47" s="43">
         <v>2100000</v>
       </c>
       <c r="BD47" s="34"/>
-      <c r="BE47" s="44">
+      <c r="BE47" s="43">
         <v>1.59E-5</v>
       </c>
-      <c r="BF47" s="44">
+      <c r="BF47" s="43">
         <v>4.0200000000000003E-7</v>
       </c>
-      <c r="BH47" s="44">
+      <c r="BH47" s="43">
         <v>1.59E-5</v>
       </c>
-      <c r="BI47" s="44">
+      <c r="BI47" s="43">
         <v>4.0200000000000003E-7</v>
       </c>
       <c r="BJ47" s="34"/>
-      <c r="BK47" s="44">
+      <c r="BK47" s="43">
         <v>1.19E-5</v>
       </c>
-      <c r="BL47" s="44">
+      <c r="BL47" s="43">
         <v>2.5400000000000002E-7</v>
       </c>
-      <c r="BN47" s="44">
+      <c r="BN47" s="43">
         <v>1.19E-5</v>
       </c>
-      <c r="BO47" s="44">
+      <c r="BO47" s="43">
         <v>2.5400000000000002E-7</v>
       </c>
       <c r="BP47" s="34"/>
@@ -9278,8 +9418,11 @@
         <v>40</v>
       </c>
       <c r="CZ47" s="41"/>
+      <c r="DA47">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A48" s="34"/>
       <c r="B48" s="35"/>
       <c r="D48" s="34"/>
@@ -9325,43 +9468,43 @@
       <c r="AV48" s="39"/>
       <c r="AW48" s="39"/>
       <c r="AX48" s="39"/>
-      <c r="AY48" s="44">
+      <c r="AY48" s="43">
         <v>53500000</v>
       </c>
-      <c r="AZ48" s="44">
+      <c r="AZ48" s="43">
         <v>3210000</v>
       </c>
       <c r="BA48" s="34"/>
-      <c r="BB48" s="44">
+      <c r="BB48" s="43">
         <v>53500000</v>
       </c>
-      <c r="BC48" s="44">
+      <c r="BC48" s="43">
         <v>3210000</v>
       </c>
       <c r="BD48" s="34"/>
-      <c r="BE48" s="44">
+      <c r="BE48" s="43">
         <v>2.0299999999999999E-5</v>
       </c>
-      <c r="BF48" s="44">
+      <c r="BF48" s="43">
         <v>7.7599999999999996E-7</v>
       </c>
-      <c r="BH48" s="44">
+      <c r="BH48" s="43">
         <v>2.0299999999999999E-5</v>
       </c>
-      <c r="BI48" s="44">
+      <c r="BI48" s="43">
         <v>7.7599999999999996E-7</v>
       </c>
       <c r="BJ48" s="34"/>
-      <c r="BK48" s="44">
+      <c r="BK48" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BL48" s="44">
+      <c r="BL48" s="43">
         <v>2.6199999999999999E-7</v>
       </c>
-      <c r="BN48" s="44">
+      <c r="BN48" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BO48" s="44">
+      <c r="BO48" s="43">
         <v>2.6199999999999999E-7</v>
       </c>
       <c r="BP48" s="34"/>
@@ -9449,8 +9592,11 @@
         <v>40</v>
       </c>
       <c r="CZ48" s="41"/>
+      <c r="DA48">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A49" s="34"/>
       <c r="B49" s="35"/>
       <c r="D49" s="34"/>
@@ -9496,10 +9642,10 @@
       <c r="AV49" s="39"/>
       <c r="AW49" s="39"/>
       <c r="AX49" s="39"/>
-      <c r="AY49" s="44">
+      <c r="AY49" s="43">
         <v>100000000</v>
       </c>
-      <c r="AZ49" s="44">
+      <c r="AZ49" s="43">
         <v>3700000</v>
       </c>
       <c r="BA49" s="34"/>
@@ -9510,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="BD49" s="34"/>
-      <c r="BE49" s="44">
+      <c r="BE49" s="43">
         <v>1.0499999999999999E-5</v>
       </c>
-      <c r="BF49" s="44">
+      <c r="BF49" s="43">
         <v>3.0499999999999999E-7</v>
       </c>
       <c r="BH49">
@@ -9523,10 +9669,10 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="34"/>
-      <c r="BK49" s="44">
+      <c r="BK49" s="43">
         <v>1.0699999999999999E-5</v>
       </c>
-      <c r="BL49" s="44">
+      <c r="BL49" s="43">
         <v>2.2700000000000001E-7</v>
       </c>
       <c r="BN49">
@@ -9620,8 +9766,11 @@
         <v>40</v>
       </c>
       <c r="CZ49" s="41"/>
+      <c r="DA49">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A50" s="34"/>
       <c r="B50" s="35"/>
       <c r="D50" s="34"/>
@@ -9667,10 +9816,10 @@
       <c r="AV50" s="39"/>
       <c r="AW50" s="39"/>
       <c r="AX50" s="39"/>
-      <c r="AY50" s="44">
+      <c r="AY50" s="43">
         <v>88100000</v>
       </c>
-      <c r="AZ50" s="44">
+      <c r="AZ50" s="43">
         <v>7970000</v>
       </c>
       <c r="BA50" s="34"/>
@@ -9681,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="BD50" s="34"/>
-      <c r="BE50" s="44">
+      <c r="BE50" s="43">
         <v>9.6299999999999993E-6</v>
       </c>
-      <c r="BF50" s="44">
+      <c r="BF50" s="43">
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="BH50">
@@ -9694,10 +9843,10 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="34"/>
-      <c r="BK50" s="44">
+      <c r="BK50" s="43">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="BL50" s="44">
+      <c r="BL50" s="43">
         <v>3.3500000000000002E-7</v>
       </c>
       <c r="BN50">
@@ -9791,8 +9940,11 @@
         <v>40</v>
       </c>
       <c r="CZ50" s="41"/>
+      <c r="DA50">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A51" s="34"/>
       <c r="B51" s="35"/>
       <c r="D51" s="34"/>
@@ -9838,10 +9990,10 @@
       <c r="AV51" s="39"/>
       <c r="AW51" s="39"/>
       <c r="AX51" s="39"/>
-      <c r="AY51" s="44">
+      <c r="AY51" s="43">
         <v>96000000</v>
       </c>
-      <c r="AZ51" s="44">
+      <c r="AZ51" s="43">
         <v>3080000</v>
       </c>
       <c r="BA51" s="34"/>
@@ -9852,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="BD51" s="34"/>
-      <c r="BE51" s="44">
+      <c r="BE51" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BF51" s="44">
+      <c r="BF51" s="43">
         <v>3.1699999999999999E-7</v>
       </c>
       <c r="BH51">
@@ -9865,10 +10017,10 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="34"/>
-      <c r="BK51" s="44">
+      <c r="BK51" s="43">
         <v>1.04E-5</v>
       </c>
-      <c r="BL51" s="44">
+      <c r="BL51" s="43">
         <v>2.6800000000000002E-7</v>
       </c>
       <c r="BN51">
@@ -9962,8 +10114,11 @@
         <v>40</v>
       </c>
       <c r="CZ51" s="41"/>
+      <c r="DA51">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A52" s="34"/>
       <c r="B52" s="35"/>
       <c r="D52" s="34"/>
@@ -10009,10 +10164,10 @@
       <c r="AV52" s="39"/>
       <c r="AW52" s="39"/>
       <c r="AX52" s="39"/>
-      <c r="AY52" s="44">
+      <c r="AY52" s="43">
         <v>80600000</v>
       </c>
-      <c r="AZ52" s="44">
+      <c r="AZ52" s="43">
         <v>2530000</v>
       </c>
       <c r="BA52" s="34"/>
@@ -10023,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="BD52" s="34"/>
-      <c r="BE52" s="44">
+      <c r="BE52" s="43">
         <v>9.0999999999999993E-6</v>
       </c>
-      <c r="BF52" s="44">
+      <c r="BF52" s="43">
         <v>2.7099999999999998E-7</v>
       </c>
       <c r="BH52">
@@ -10036,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="34"/>
-      <c r="BK52" s="44">
+      <c r="BK52" s="43">
         <v>9.3100000000000006E-6</v>
       </c>
-      <c r="BL52" s="44">
+      <c r="BL52" s="43">
         <v>3.1199999999999999E-7</v>
       </c>
       <c r="BN52">
@@ -10133,8 +10288,11 @@
         <v>40</v>
       </c>
       <c r="CZ52" s="41"/>
+      <c r="DA52">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A53" s="34"/>
       <c r="B53" s="35"/>
       <c r="D53" s="34"/>
@@ -10180,10 +10338,10 @@
       <c r="AV53" s="39"/>
       <c r="AW53" s="39"/>
       <c r="AX53" s="39"/>
-      <c r="AY53" s="44">
+      <c r="AY53" s="43">
         <v>88100000</v>
       </c>
-      <c r="AZ53" s="44">
+      <c r="AZ53" s="43">
         <v>3040000</v>
       </c>
       <c r="BA53" s="34"/>
@@ -10194,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="BD53" s="34"/>
-      <c r="BE53" s="44">
+      <c r="BE53" s="43">
         <v>9.2799999999999992E-6</v>
       </c>
-      <c r="BF53" s="44">
+      <c r="BF53" s="43">
         <v>2.23E-7</v>
       </c>
       <c r="BH53">
@@ -10207,10 +10365,10 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="34"/>
-      <c r="BK53" s="44">
+      <c r="BK53" s="43">
         <v>1.03E-5</v>
       </c>
-      <c r="BL53" s="44">
+      <c r="BL53" s="43">
         <v>3.5499999999999999E-7</v>
       </c>
       <c r="BN53">
@@ -10304,8 +10462,11 @@
         <v>40</v>
       </c>
       <c r="CZ53" s="41"/>
+      <c r="DA53">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A54" s="34"/>
       <c r="B54" s="35"/>
       <c r="D54" s="34"/>
@@ -10351,10 +10512,10 @@
       <c r="AV54" s="39"/>
       <c r="AW54" s="39"/>
       <c r="AX54" s="39"/>
-      <c r="AY54" s="44">
+      <c r="AY54" s="43">
         <v>130000000</v>
       </c>
-      <c r="AZ54" s="44">
+      <c r="AZ54" s="43">
         <v>4790000</v>
       </c>
       <c r="BA54" s="34"/>
@@ -10365,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="BD54" s="34"/>
-      <c r="BE54" s="44">
+      <c r="BE54" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="BF54" s="44">
+      <c r="BF54" s="43">
         <v>3.6899999999999998E-7</v>
       </c>
       <c r="BH54">
@@ -10378,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="34"/>
-      <c r="BK54" s="44">
+      <c r="BK54" s="43">
         <v>1.13E-5</v>
       </c>
-      <c r="BL54" s="44">
+      <c r="BL54" s="43">
         <v>2.4600000000000001E-7</v>
       </c>
       <c r="BN54">
@@ -10475,8 +10636,11 @@
         <v>40</v>
       </c>
       <c r="CZ54" s="41"/>
+      <c r="DA54">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A55" s="34"/>
       <c r="B55" s="35"/>
       <c r="D55" s="34"/>
@@ -10522,10 +10686,10 @@
       <c r="AV55" s="39"/>
       <c r="AW55" s="39"/>
       <c r="AX55" s="39"/>
-      <c r="AY55" s="44">
+      <c r="AY55" s="43">
         <v>125000000</v>
       </c>
-      <c r="AZ55" s="44">
+      <c r="AZ55" s="43">
         <v>3420000</v>
       </c>
       <c r="BA55" s="34"/>
@@ -10536,10 +10700,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="34"/>
-      <c r="BE55" s="44">
+      <c r="BE55" s="43">
         <v>8.8699999999999998E-6</v>
       </c>
-      <c r="BF55" s="44">
+      <c r="BF55" s="43">
         <v>3.9299999999999999E-7</v>
       </c>
       <c r="BH55">
@@ -10549,10 +10713,10 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="34"/>
-      <c r="BK55" s="44">
+      <c r="BK55" s="43">
         <v>8.4400000000000005E-6</v>
       </c>
-      <c r="BL55" s="44">
+      <c r="BL55" s="43">
         <v>5.4899999999999995E-7</v>
       </c>
       <c r="BN55">
@@ -10646,8 +10810,11 @@
         <v>40</v>
       </c>
       <c r="CZ55" s="41"/>
+      <c r="DA55">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A56" s="34"/>
       <c r="B56" s="35"/>
       <c r="D56" s="34"/>
@@ -10693,10 +10860,10 @@
       <c r="AV56" s="39"/>
       <c r="AW56" s="39"/>
       <c r="AX56" s="39"/>
-      <c r="AY56" s="44">
+      <c r="AY56" s="43">
         <v>127000000</v>
       </c>
-      <c r="AZ56" s="44">
+      <c r="AZ56" s="43">
         <v>4950000</v>
       </c>
       <c r="BA56" s="34"/>
@@ -10707,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="BD56" s="34"/>
-      <c r="BE56" s="44">
+      <c r="BE56" s="43">
         <v>7.2200000000000003E-6</v>
       </c>
-      <c r="BF56" s="44">
+      <c r="BF56" s="43">
         <v>4.7E-7</v>
       </c>
       <c r="BH56">
@@ -10720,10 +10887,10 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="34"/>
-      <c r="BK56" s="44">
+      <c r="BK56" s="43">
         <v>1.11E-5</v>
       </c>
-      <c r="BL56" s="44">
+      <c r="BL56" s="43">
         <v>2.8999999999999998E-7</v>
       </c>
       <c r="BN56">
@@ -10817,8 +10984,11 @@
         <v>40</v>
       </c>
       <c r="CZ56" s="41"/>
+      <c r="DA56">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A57" s="34"/>
       <c r="B57" s="35"/>
       <c r="D57" s="34"/>
@@ -10864,10 +11034,10 @@
       <c r="AV57" s="39"/>
       <c r="AW57" s="39"/>
       <c r="AX57" s="39"/>
-      <c r="AY57" s="44">
+      <c r="AY57" s="43">
         <v>88100000</v>
       </c>
-      <c r="AZ57" s="44">
+      <c r="AZ57" s="43">
         <v>1600000</v>
       </c>
       <c r="BA57" s="34"/>
@@ -10878,10 +11048,10 @@
         <v>0</v>
       </c>
       <c r="BD57" s="34"/>
-      <c r="BE57" s="44">
+      <c r="BE57" s="43">
         <v>1.0499999999999999E-5</v>
       </c>
-      <c r="BF57" s="44">
+      <c r="BF57" s="43">
         <v>3.03E-7</v>
       </c>
       <c r="BH57">
@@ -10891,10 +11061,10 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="34"/>
-      <c r="BK57" s="44">
+      <c r="BK57" s="43">
         <v>1.1E-5</v>
       </c>
-      <c r="BL57" s="44">
+      <c r="BL57" s="43">
         <v>2.0200000000000001E-7</v>
       </c>
       <c r="BN57">
@@ -10988,8 +11158,11 @@
         <v>40</v>
       </c>
       <c r="CZ57" s="41"/>
+      <c r="DA57">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A58" s="34"/>
       <c r="B58" s="35"/>
       <c r="D58" s="34"/>
@@ -11035,10 +11208,10 @@
       <c r="AV58" s="39"/>
       <c r="AW58" s="39"/>
       <c r="AX58" s="39"/>
-      <c r="AY58" s="44">
+      <c r="AY58" s="43">
         <v>106000000</v>
       </c>
-      <c r="AZ58" s="44">
+      <c r="AZ58" s="43">
         <v>2600000</v>
       </c>
       <c r="BA58" s="34"/>
@@ -11049,10 +11222,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="34"/>
-      <c r="BE58" s="44">
+      <c r="BE58" s="43">
         <v>1.04E-5</v>
       </c>
-      <c r="BF58" s="44">
+      <c r="BF58" s="43">
         <v>1.2700000000000001E-7</v>
       </c>
       <c r="BH58">
@@ -11062,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="34"/>
-      <c r="BK58" s="44">
+      <c r="BK58" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BL58" s="44">
+      <c r="BL58" s="43">
         <v>1.8799999999999999E-7</v>
       </c>
       <c r="BN58">
@@ -11159,8 +11332,11 @@
         <v>40</v>
       </c>
       <c r="CZ58" s="41"/>
+      <c r="DA58">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A59" s="34"/>
       <c r="B59" s="35"/>
       <c r="D59" s="34"/>
@@ -11206,10 +11382,10 @@
       <c r="AV59" s="39"/>
       <c r="AW59" s="39"/>
       <c r="AX59" s="39"/>
-      <c r="AY59" s="44">
+      <c r="AY59" s="43">
         <v>106000000</v>
       </c>
-      <c r="AZ59" s="44">
+      <c r="AZ59" s="43">
         <v>4130000</v>
       </c>
       <c r="BA59" s="34"/>
@@ -11220,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="34"/>
-      <c r="BE59" s="44">
+      <c r="BE59" s="43">
         <v>8.9400000000000008E-6</v>
       </c>
-      <c r="BF59" s="44">
+      <c r="BF59" s="43">
         <v>5.0800000000000005E-7</v>
       </c>
       <c r="BH59">
@@ -11233,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="34"/>
-      <c r="BK59" s="44">
+      <c r="BK59" s="43">
         <v>1.1399999999999999E-5</v>
       </c>
-      <c r="BL59" s="44">
+      <c r="BL59" s="43">
         <v>2.2399999999999999E-7</v>
       </c>
       <c r="BN59">
@@ -11330,8 +11506,11 @@
         <v>40</v>
       </c>
       <c r="CZ59" s="41"/>
+      <c r="DA59">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A60" s="34"/>
       <c r="B60" s="35"/>
       <c r="D60" s="34"/>
@@ -11377,10 +11556,10 @@
       <c r="AV60" s="39"/>
       <c r="AW60" s="39"/>
       <c r="AX60" s="39"/>
-      <c r="AY60" s="44">
+      <c r="AY60" s="43">
         <v>123000000</v>
       </c>
-      <c r="AZ60" s="44">
+      <c r="AZ60" s="43">
         <v>6430000</v>
       </c>
       <c r="BA60" s="34"/>
@@ -11391,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="BD60" s="34"/>
-      <c r="BE60" s="44">
+      <c r="BE60" s="43">
         <v>7.9899999999999997E-6</v>
       </c>
-      <c r="BF60" s="44">
+      <c r="BF60" s="43">
         <v>4.39E-7</v>
       </c>
       <c r="BH60">
@@ -11404,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="34"/>
-      <c r="BK60" s="44">
+      <c r="BK60" s="43">
         <v>8.8100000000000004E-6</v>
       </c>
-      <c r="BL60" s="44">
+      <c r="BL60" s="43">
         <v>1.5800000000000001E-7</v>
       </c>
       <c r="BN60">
@@ -11501,8 +11680,11 @@
         <v>40</v>
       </c>
       <c r="CZ60" s="41"/>
+      <c r="DA60">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A61" s="34"/>
       <c r="B61" s="35"/>
       <c r="D61" s="34"/>
@@ -11548,10 +11730,10 @@
       <c r="AV61" s="39"/>
       <c r="AW61" s="39"/>
       <c r="AX61" s="39"/>
-      <c r="AY61" s="44">
+      <c r="AY61" s="43">
         <v>101000000</v>
       </c>
-      <c r="AZ61" s="44">
+      <c r="AZ61" s="43">
         <v>3790000</v>
       </c>
       <c r="BA61" s="34"/>
@@ -11562,10 +11744,10 @@
         <v>0</v>
       </c>
       <c r="BD61" s="34"/>
-      <c r="BE61" s="44">
+      <c r="BE61" s="43">
         <v>8.3999999999999992E-6</v>
       </c>
-      <c r="BF61" s="44">
+      <c r="BF61" s="43">
         <v>3.8700000000000001E-7</v>
       </c>
       <c r="BH61">
@@ -11575,10 +11757,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="34"/>
-      <c r="BK61" s="44">
+      <c r="BK61" s="43">
         <v>1.11E-5</v>
       </c>
-      <c r="BL61" s="44">
+      <c r="BL61" s="43">
         <v>3.22E-7</v>
       </c>
       <c r="BN61">
@@ -11672,8 +11854,11 @@
         <v>40</v>
       </c>
       <c r="CZ61" s="41"/>
+      <c r="DA61">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A62" s="34"/>
       <c r="B62" s="35"/>
       <c r="D62" s="34"/>
@@ -11719,10 +11904,10 @@
       <c r="AV62" s="39"/>
       <c r="AW62" s="39"/>
       <c r="AX62" s="39"/>
-      <c r="AY62" s="44">
+      <c r="AY62" s="43">
         <v>83400000</v>
       </c>
-      <c r="AZ62" s="44">
+      <c r="AZ62" s="43">
         <v>4870000</v>
       </c>
       <c r="BA62" s="34"/>
@@ -11733,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="BD62" s="34"/>
-      <c r="BE62" s="44">
+      <c r="BE62" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BF62" s="44">
+      <c r="BF62" s="43">
         <v>3.3999999999999997E-7</v>
       </c>
       <c r="BH62">
@@ -11746,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="BJ62" s="34"/>
-      <c r="BK62" s="44">
+      <c r="BK62" s="43">
         <v>1.1E-5</v>
       </c>
-      <c r="BL62" s="44">
+      <c r="BL62" s="43">
         <v>3.5600000000000001E-7</v>
       </c>
       <c r="BN62">
@@ -11843,8 +12028,11 @@
         <v>40</v>
       </c>
       <c r="CZ62" s="41"/>
+      <c r="DA62">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A63" s="34"/>
       <c r="B63" s="35"/>
       <c r="D63" s="34"/>
@@ -11890,10 +12078,10 @@
       <c r="AV63" s="39"/>
       <c r="AW63" s="39"/>
       <c r="AX63" s="39"/>
-      <c r="AY63" s="44">
+      <c r="AY63" s="43">
         <v>74400000</v>
       </c>
-      <c r="AZ63" s="44">
+      <c r="AZ63" s="43">
         <v>4880000</v>
       </c>
       <c r="BA63" s="34"/>
@@ -11904,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="BD63" s="34"/>
-      <c r="BE63" s="44">
+      <c r="BE63" s="43">
         <v>9.7999999999999993E-6</v>
       </c>
-      <c r="BF63" s="44">
+      <c r="BF63" s="43">
         <v>3.0699999999999998E-7</v>
       </c>
       <c r="BH63">
@@ -11917,10 +12105,10 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="34"/>
-      <c r="BK63" s="44">
+      <c r="BK63" s="43">
         <v>1.17E-5</v>
       </c>
-      <c r="BL63" s="44">
+      <c r="BL63" s="43">
         <v>2.6300000000000001E-7</v>
       </c>
       <c r="BN63">
@@ -12014,8 +12202,11 @@
         <v>40</v>
       </c>
       <c r="CZ63" s="41"/>
+      <c r="DA63">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A64" s="34"/>
       <c r="B64" s="35"/>
       <c r="D64" s="34"/>
@@ -12061,10 +12252,10 @@
       <c r="AV64" s="39"/>
       <c r="AW64" s="39"/>
       <c r="AX64" s="39"/>
-      <c r="AY64" s="44">
+      <c r="AY64" s="43">
         <v>93500000</v>
       </c>
-      <c r="AZ64" s="44">
+      <c r="AZ64" s="43">
         <v>4980000</v>
       </c>
       <c r="BA64" s="34"/>
@@ -12075,10 +12266,10 @@
         <v>0</v>
       </c>
       <c r="BD64" s="34"/>
-      <c r="BE64" s="44">
+      <c r="BE64" s="43">
         <v>1.0900000000000001E-5</v>
       </c>
-      <c r="BF64" s="44">
+      <c r="BF64" s="43">
         <v>6.1600000000000001E-7</v>
       </c>
       <c r="BH64">
@@ -12088,10 +12279,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="34"/>
-      <c r="BK64" s="44">
+      <c r="BK64" s="43">
         <v>1.17E-5</v>
       </c>
-      <c r="BL64" s="44">
+      <c r="BL64" s="43">
         <v>2.5499999999999999E-7</v>
       </c>
       <c r="BN64">
@@ -12185,8 +12376,11 @@
         <v>40</v>
       </c>
       <c r="CZ64" s="41"/>
+      <c r="DA64">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A65" s="34"/>
       <c r="B65" s="35"/>
       <c r="D65" s="34"/>
@@ -12232,10 +12426,10 @@
       <c r="AV65" s="39"/>
       <c r="AW65" s="39"/>
       <c r="AX65" s="39"/>
-      <c r="AY65" s="44">
+      <c r="AY65" s="43">
         <v>98500000</v>
       </c>
-      <c r="AZ65" s="44">
+      <c r="AZ65" s="43">
         <v>6790000</v>
       </c>
       <c r="BA65" s="34"/>
@@ -12246,10 +12440,10 @@
         <v>0</v>
       </c>
       <c r="BD65" s="34"/>
-      <c r="BE65" s="44">
+      <c r="BE65" s="43">
         <v>9.3899999999999999E-6</v>
       </c>
-      <c r="BF65" s="44">
+      <c r="BF65" s="43">
         <v>4.75E-7</v>
       </c>
       <c r="BH65">
@@ -12259,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="34"/>
-      <c r="BK65" s="44">
+      <c r="BK65" s="43">
         <v>1.03E-5</v>
       </c>
-      <c r="BL65" s="44">
+      <c r="BL65" s="43">
         <v>2.17E-7</v>
       </c>
       <c r="BN65">
@@ -12356,8 +12550,11 @@
         <v>40</v>
       </c>
       <c r="CZ65" s="41"/>
+      <c r="DA65">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A66" s="34"/>
       <c r="B66" s="35"/>
       <c r="D66" s="34"/>
@@ -12403,10 +12600,10 @@
       <c r="AV66" s="39"/>
       <c r="AW66" s="39"/>
       <c r="AX66" s="39"/>
-      <c r="AY66" s="44">
+      <c r="AY66" s="43">
         <v>76800000</v>
       </c>
-      <c r="AZ66" s="44">
+      <c r="AZ66" s="43">
         <v>1880000</v>
       </c>
       <c r="BA66" s="34"/>
@@ -12417,10 +12614,10 @@
         <v>0</v>
       </c>
       <c r="BD66" s="34"/>
-      <c r="BE66" s="44">
+      <c r="BE66" s="43">
         <v>9.7799999999999995E-6</v>
       </c>
-      <c r="BF66" s="44">
+      <c r="BF66" s="43">
         <v>4.8800000000000003E-7</v>
       </c>
       <c r="BH66">
@@ -12430,10 +12627,10 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="34"/>
-      <c r="BK66" s="44">
+      <c r="BK66" s="43">
         <v>1.06E-5</v>
       </c>
-      <c r="BL66" s="44">
+      <c r="BL66" s="43">
         <v>2.7300000000000002E-7</v>
       </c>
       <c r="BN66">
@@ -12527,8 +12724,11 @@
         <v>40</v>
       </c>
       <c r="CZ66" s="41"/>
+      <c r="DA66">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A67" s="34"/>
       <c r="B67" s="35"/>
       <c r="D67" s="34"/>
@@ -12574,10 +12774,10 @@
       <c r="AV67" s="39"/>
       <c r="AW67" s="39"/>
       <c r="AX67" s="39"/>
-      <c r="AY67" s="44">
+      <c r="AY67" s="43">
         <v>67700000</v>
       </c>
-      <c r="AZ67" s="44">
+      <c r="AZ67" s="43">
         <v>4520000</v>
       </c>
       <c r="BA67" s="34"/>
@@ -12588,10 +12788,10 @@
         <v>0</v>
       </c>
       <c r="BD67" s="34"/>
-      <c r="BE67" s="44">
+      <c r="BE67" s="43">
         <v>9.91E-6</v>
       </c>
-      <c r="BF67" s="44">
+      <c r="BF67" s="43">
         <v>5.7899999999999998E-7</v>
       </c>
       <c r="BH67">
@@ -12601,10 +12801,10 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="34"/>
-      <c r="BK67" s="44">
+      <c r="BK67" s="43">
         <v>1.24E-5</v>
       </c>
-      <c r="BL67" s="44">
+      <c r="BL67" s="43">
         <v>3.9400000000000001E-7</v>
       </c>
       <c r="BN67">
@@ -12698,8 +12898,11 @@
         <v>40</v>
       </c>
       <c r="CZ67" s="41"/>
+      <c r="DA67">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A68" s="34"/>
       <c r="B68" s="35"/>
       <c r="D68" s="34"/>
@@ -12745,10 +12948,10 @@
       <c r="AV68" s="39"/>
       <c r="AW68" s="39"/>
       <c r="AX68" s="39"/>
-      <c r="AY68" s="44">
+      <c r="AY68" s="43">
         <v>69300000</v>
       </c>
-      <c r="AZ68" s="44">
+      <c r="AZ68" s="43">
         <v>1920000</v>
       </c>
       <c r="BA68" s="34"/>
@@ -12759,10 +12962,10 @@
         <v>0</v>
       </c>
       <c r="BD68" s="34"/>
-      <c r="BE68" s="44">
+      <c r="BE68" s="43">
         <v>1.04E-5</v>
       </c>
-      <c r="BF68" s="44">
+      <c r="BF68" s="43">
         <v>4.7800000000000002E-7</v>
       </c>
       <c r="BH68">
@@ -12772,10 +12975,10 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="34"/>
-      <c r="BK68" s="44">
+      <c r="BK68" s="43">
         <v>1.29E-5</v>
       </c>
-      <c r="BL68" s="44">
+      <c r="BL68" s="43">
         <v>2.2000000000000001E-7</v>
       </c>
       <c r="BN68">
@@ -12869,8 +13072,11 @@
         <v>40</v>
       </c>
       <c r="CZ68" s="41"/>
+      <c r="DA68">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A69" s="34"/>
       <c r="B69" s="35"/>
       <c r="D69" s="34"/>
@@ -12916,10 +13122,10 @@
       <c r="AV69" s="39"/>
       <c r="AW69" s="39"/>
       <c r="AX69" s="39"/>
-      <c r="AY69" s="44">
+      <c r="AY69" s="43">
         <v>73700000</v>
       </c>
-      <c r="AZ69" s="44">
+      <c r="AZ69" s="43">
         <v>3900000</v>
       </c>
       <c r="BA69" s="34"/>
@@ -12930,10 +13136,10 @@
         <v>0</v>
       </c>
       <c r="BD69" s="34"/>
-      <c r="BE69" s="44">
+      <c r="BE69" s="43">
         <v>1.1E-5</v>
       </c>
-      <c r="BF69" s="44">
+      <c r="BF69" s="43">
         <v>2.0499999999999999E-6</v>
       </c>
       <c r="BH69">
@@ -12943,10 +13149,10 @@
         <v>0</v>
       </c>
       <c r="BJ69" s="34"/>
-      <c r="BK69" s="44">
+      <c r="BK69" s="43">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="BL69" s="44">
+      <c r="BL69" s="43">
         <v>3.7099999999999997E-7</v>
       </c>
       <c r="BN69">
@@ -13040,8 +13246,11 @@
         <v>40</v>
       </c>
       <c r="CZ69" s="41"/>
+      <c r="DA69">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A70" s="34"/>
       <c r="B70" s="35"/>
       <c r="D70" s="34"/>
@@ -13087,10 +13296,10 @@
       <c r="AV70" s="39"/>
       <c r="AW70" s="39"/>
       <c r="AX70" s="39"/>
-      <c r="AY70" s="44">
+      <c r="AY70" s="43">
         <v>94500000</v>
       </c>
-      <c r="AZ70" s="44">
+      <c r="AZ70" s="43">
         <v>2310000</v>
       </c>
       <c r="BA70" s="34"/>
@@ -13101,10 +13310,10 @@
         <v>0</v>
       </c>
       <c r="BD70" s="34"/>
-      <c r="BE70" s="44">
+      <c r="BE70" s="43">
         <v>1.1E-5</v>
       </c>
-      <c r="BF70" s="44">
+      <c r="BF70" s="43">
         <v>4.2800000000000002E-7</v>
       </c>
       <c r="BH70">
@@ -13114,10 +13323,10 @@
         <v>0</v>
       </c>
       <c r="BJ70" s="34"/>
-      <c r="BK70" s="44">
+      <c r="BK70" s="43">
         <v>1.19E-5</v>
       </c>
-      <c r="BL70" s="44">
+      <c r="BL70" s="43">
         <v>1.8400000000000001E-7</v>
       </c>
       <c r="BN70">
@@ -13211,8 +13420,11 @@
         <v>40</v>
       </c>
       <c r="CZ70" s="41"/>
+      <c r="DA70">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A71" s="34"/>
       <c r="B71" s="35"/>
       <c r="D71" s="34"/>
@@ -13258,10 +13470,10 @@
       <c r="AV71" s="39"/>
       <c r="AW71" s="39"/>
       <c r="AX71" s="39"/>
-      <c r="AY71" s="44">
+      <c r="AY71" s="43">
         <v>84000000</v>
       </c>
-      <c r="AZ71" s="44">
+      <c r="AZ71" s="43">
         <v>4630000</v>
       </c>
       <c r="BA71" s="34"/>
@@ -13272,10 +13484,10 @@
         <v>0</v>
       </c>
       <c r="BD71" s="34"/>
-      <c r="BE71" s="44">
+      <c r="BE71" s="43">
         <v>1.04E-5</v>
       </c>
-      <c r="BF71" s="44">
+      <c r="BF71" s="43">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="BH71">
@@ -13285,10 +13497,10 @@
         <v>0</v>
       </c>
       <c r="BJ71" s="34"/>
-      <c r="BK71" s="44">
+      <c r="BK71" s="43">
         <v>1.1600000000000001E-5</v>
       </c>
-      <c r="BL71" s="44">
+      <c r="BL71" s="43">
         <v>2.6E-7</v>
       </c>
       <c r="BN71">
@@ -13382,8 +13594,11 @@
         <v>40</v>
       </c>
       <c r="CZ71" s="41"/>
+      <c r="DA71">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A72" s="34"/>
       <c r="B72" s="35"/>
       <c r="D72" s="34"/>
@@ -13431,10 +13646,10 @@
       <c r="AV72" s="39"/>
       <c r="AW72" s="39"/>
       <c r="AX72" s="39"/>
-      <c r="AY72" s="44">
+      <c r="AY72" s="43">
         <v>186000000</v>
       </c>
-      <c r="AZ72" s="44">
+      <c r="AZ72" s="43">
         <v>12500000</v>
       </c>
       <c r="BA72" s="34"/>
@@ -13445,10 +13660,10 @@
         <v>0</v>
       </c>
       <c r="BD72" s="34"/>
-      <c r="BE72" s="44">
+      <c r="BE72" s="43">
         <v>1.63E-5</v>
       </c>
-      <c r="BF72" s="44">
+      <c r="BF72" s="43">
         <v>3.8799999999999998E-7</v>
       </c>
       <c r="BH72">
@@ -13458,10 +13673,10 @@
         <v>0</v>
       </c>
       <c r="BJ72" s="34"/>
-      <c r="BK72" s="44">
+      <c r="BK72" s="43">
         <v>8.2700000000000004E-6</v>
       </c>
-      <c r="BL72" s="44">
+      <c r="BL72" s="43">
         <v>1.3899999999999999E-7</v>
       </c>
       <c r="BN72">
@@ -13555,8 +13770,11 @@
         <v>40</v>
       </c>
       <c r="CZ72" s="41"/>
+      <c r="DA72">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A73" s="34"/>
       <c r="B73" s="35"/>
       <c r="D73" s="34"/>
@@ -13604,10 +13822,10 @@
       <c r="AV73" s="39"/>
       <c r="AW73" s="39"/>
       <c r="AX73" s="39"/>
-      <c r="AY73" s="44">
+      <c r="AY73" s="43">
         <v>760000000</v>
       </c>
-      <c r="AZ73" s="44">
+      <c r="AZ73" s="43">
         <v>10700000</v>
       </c>
       <c r="BA73" s="34"/>
@@ -13618,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="BD73" s="34"/>
-      <c r="BE73" s="44">
+      <c r="BE73" s="43">
         <v>9.7999999999999993E-6</v>
       </c>
-      <c r="BF73" s="44">
+      <c r="BF73" s="43">
         <v>2.8599999999999999E-7</v>
       </c>
       <c r="BH73">
@@ -13631,10 +13849,10 @@
         <v>0</v>
       </c>
       <c r="BJ73" s="34"/>
-      <c r="BK73" s="44">
+      <c r="BK73" s="43">
         <v>6.0399999999999998E-6</v>
       </c>
-      <c r="BL73" s="44">
+      <c r="BL73" s="43">
         <v>1.05E-7</v>
       </c>
       <c r="BN73">
@@ -13728,8 +13946,11 @@
         <v>40</v>
       </c>
       <c r="CZ73" s="41"/>
+      <c r="DA73">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A74" s="34"/>
       <c r="B74" s="35"/>
       <c r="D74" s="34"/>
@@ -13777,10 +13998,10 @@
       <c r="AV74" s="39"/>
       <c r="AW74" s="39"/>
       <c r="AX74" s="39"/>
-      <c r="AY74" s="44">
+      <c r="AY74" s="43">
         <v>323000000</v>
       </c>
-      <c r="AZ74" s="44">
+      <c r="AZ74" s="43">
         <v>10300000</v>
       </c>
       <c r="BA74" s="34"/>
@@ -13791,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="BD74" s="34"/>
-      <c r="BE74" s="44">
+      <c r="BE74" s="43">
         <v>9.6399999999999992E-6</v>
       </c>
-      <c r="BF74" s="44">
+      <c r="BF74" s="43">
         <v>3.3000000000000002E-7</v>
       </c>
       <c r="BH74">
@@ -13804,10 +14025,10 @@
         <v>0</v>
       </c>
       <c r="BJ74" s="34"/>
-      <c r="BK74" s="44">
+      <c r="BK74" s="43">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="BL74" s="44">
+      <c r="BL74" s="43">
         <v>1.09E-7</v>
       </c>
       <c r="BN74">
@@ -13901,8 +14122,11 @@
         <v>40</v>
       </c>
       <c r="CZ74" s="41"/>
+      <c r="DA74">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A75" s="34"/>
       <c r="B75" s="35"/>
       <c r="D75" s="34"/>
@@ -13950,10 +14174,10 @@
       <c r="AV75" s="39"/>
       <c r="AW75" s="39"/>
       <c r="AX75" s="39"/>
-      <c r="AY75" s="44">
+      <c r="AY75" s="43">
         <v>367000000</v>
       </c>
-      <c r="AZ75" s="44">
+      <c r="AZ75" s="43">
         <v>7360000</v>
       </c>
       <c r="BA75" s="34"/>
@@ -13964,10 +14188,10 @@
         <v>0</v>
       </c>
       <c r="BD75" s="34"/>
-      <c r="BE75" s="44">
+      <c r="BE75" s="43">
         <v>1.22E-5</v>
       </c>
-      <c r="BF75" s="44">
+      <c r="BF75" s="43">
         <v>2.6600000000000003E-7</v>
       </c>
       <c r="BH75">
@@ -13977,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="BJ75" s="34"/>
-      <c r="BK75" s="44">
+      <c r="BK75" s="43">
         <v>9.4399999999999994E-6</v>
       </c>
-      <c r="BL75" s="44">
+      <c r="BL75" s="43">
         <v>1.5599999999999999E-7</v>
       </c>
       <c r="BN75">
@@ -14074,8 +14298,11 @@
         <v>40</v>
       </c>
       <c r="CZ75" s="41"/>
+      <c r="DA75">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A76" s="34"/>
       <c r="B76" s="35"/>
       <c r="D76" s="34"/>
@@ -14123,10 +14350,10 @@
       <c r="AV76" s="39"/>
       <c r="AW76" s="39"/>
       <c r="AX76" s="39"/>
-      <c r="AY76" s="44">
+      <c r="AY76" s="43">
         <v>184000000</v>
       </c>
-      <c r="AZ76" s="44">
+      <c r="AZ76" s="43">
         <v>9580000</v>
       </c>
       <c r="BA76" s="34"/>
@@ -14137,10 +14364,10 @@
         <v>0</v>
       </c>
       <c r="BD76" s="34"/>
-      <c r="BE76" s="44">
+      <c r="BE76" s="43">
         <v>1.4100000000000001E-5</v>
       </c>
-      <c r="BF76" s="44">
+      <c r="BF76" s="43">
         <v>4.0499999999999999E-7</v>
       </c>
       <c r="BH76">
@@ -14150,10 +14377,10 @@
         <v>0</v>
       </c>
       <c r="BJ76" s="34"/>
-      <c r="BK76" s="44">
+      <c r="BK76" s="43">
         <v>6.6200000000000001E-6</v>
       </c>
-      <c r="BL76" s="44">
+      <c r="BL76" s="43">
         <v>1.5300000000000001E-7</v>
       </c>
       <c r="BN76">
@@ -14247,8 +14474,11 @@
         <v>40</v>
       </c>
       <c r="CZ76" s="41"/>
+      <c r="DA76">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A77" s="34"/>
       <c r="B77" s="35"/>
       <c r="D77" s="34"/>
@@ -14296,10 +14526,10 @@
       <c r="AV77" s="39"/>
       <c r="AW77" s="39"/>
       <c r="AX77" s="39"/>
-      <c r="AY77" s="44">
+      <c r="AY77" s="43">
         <v>177000000</v>
       </c>
-      <c r="AZ77" s="44">
+      <c r="AZ77" s="43">
         <v>5650000</v>
       </c>
       <c r="BA77" s="34"/>
@@ -14310,10 +14540,10 @@
         <v>0</v>
       </c>
       <c r="BD77" s="34"/>
-      <c r="BE77" s="44">
+      <c r="BE77" s="43">
         <v>1.6900000000000001E-5</v>
       </c>
-      <c r="BF77" s="44">
+      <c r="BF77" s="43">
         <v>6.8899999999999999E-7</v>
       </c>
       <c r="BH77">
@@ -14323,10 +14553,10 @@
         <v>0</v>
       </c>
       <c r="BJ77" s="34"/>
-      <c r="BK77" s="44">
+      <c r="BK77" s="43">
         <v>5.8699999999999997E-6</v>
       </c>
-      <c r="BL77" s="44">
+      <c r="BL77" s="43">
         <v>1.67E-7</v>
       </c>
       <c r="BN77">
@@ -14420,8 +14650,11 @@
         <v>40</v>
       </c>
       <c r="CZ77" s="41"/>
+      <c r="DA77">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A78" s="34"/>
       <c r="B78" s="35"/>
       <c r="D78" s="34"/>
@@ -14469,10 +14702,10 @@
       <c r="AV78" s="39"/>
       <c r="AW78" s="39"/>
       <c r="AX78" s="39"/>
-      <c r="AY78" s="44">
+      <c r="AY78" s="43">
         <v>220000000</v>
       </c>
-      <c r="AZ78" s="44">
+      <c r="AZ78" s="43">
         <v>4000000</v>
       </c>
       <c r="BA78" s="34"/>
@@ -14483,10 +14716,10 @@
         <v>0</v>
       </c>
       <c r="BD78" s="34"/>
-      <c r="BE78" s="44">
+      <c r="BE78" s="43">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="BF78" s="44">
+      <c r="BF78" s="43">
         <v>3.9400000000000001E-7</v>
       </c>
       <c r="BH78">
@@ -14496,10 +14729,10 @@
         <v>0</v>
       </c>
       <c r="BJ78" s="34"/>
-      <c r="BK78" s="44">
+      <c r="BK78" s="43">
         <v>5.6799999999999998E-6</v>
       </c>
-      <c r="BL78" s="44">
+      <c r="BL78" s="43">
         <v>1.6299999999999999E-7</v>
       </c>
       <c r="BN78">
@@ -14593,8 +14826,11 @@
         <v>40</v>
       </c>
       <c r="CZ78" s="41"/>
+      <c r="DA78">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A79" s="34"/>
       <c r="B79" s="35"/>
       <c r="D79" s="34"/>
@@ -14642,10 +14878,10 @@
       <c r="AV79" s="39"/>
       <c r="AW79" s="39"/>
       <c r="AX79" s="39"/>
-      <c r="AY79" s="44">
+      <c r="AY79" s="43">
         <v>201000000</v>
       </c>
-      <c r="AZ79" s="44">
+      <c r="AZ79" s="43">
         <v>12200000</v>
       </c>
       <c r="BA79" s="34"/>
@@ -14656,10 +14892,10 @@
         <v>0</v>
       </c>
       <c r="BD79" s="34"/>
-      <c r="BE79" s="44">
+      <c r="BE79" s="43">
         <v>1.49E-5</v>
       </c>
-      <c r="BF79" s="44">
+      <c r="BF79" s="43">
         <v>5.0800000000000005E-7</v>
       </c>
       <c r="BH79">
@@ -14669,10 +14905,10 @@
         <v>0</v>
       </c>
       <c r="BJ79" s="34"/>
-      <c r="BK79" s="44">
+      <c r="BK79" s="43">
         <v>5.6799999999999998E-6</v>
       </c>
-      <c r="BL79" s="44">
+      <c r="BL79" s="43">
         <v>1.8199999999999999E-7</v>
       </c>
       <c r="BN79">
@@ -14766,8 +15002,11 @@
         <v>40</v>
       </c>
       <c r="CZ79" s="41"/>
+      <c r="DA79">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A80" s="34"/>
       <c r="B80" s="35"/>
       <c r="D80" s="34"/>
@@ -14815,10 +15054,10 @@
       <c r="AV80" s="39"/>
       <c r="AW80" s="39"/>
       <c r="AX80" s="39"/>
-      <c r="AY80" s="44">
+      <c r="AY80" s="43">
         <v>408000000</v>
       </c>
-      <c r="AZ80" s="44">
+      <c r="AZ80" s="43">
         <v>11000000</v>
       </c>
       <c r="BA80" s="34"/>
@@ -14829,10 +15068,10 @@
         <v>0</v>
       </c>
       <c r="BD80" s="34"/>
-      <c r="BE80" s="44">
+      <c r="BE80" s="43">
         <v>1.1E-5</v>
       </c>
-      <c r="BF80" s="44">
+      <c r="BF80" s="43">
         <v>4.32E-7</v>
       </c>
       <c r="BH80">
@@ -14842,10 +15081,10 @@
         <v>0</v>
       </c>
       <c r="BJ80" s="34"/>
-      <c r="BK80" s="44">
+      <c r="BK80" s="43">
         <v>6.8600000000000004E-6</v>
       </c>
-      <c r="BL80" s="44">
+      <c r="BL80" s="43">
         <v>1.3300000000000001E-7</v>
       </c>
       <c r="BN80">
@@ -14939,8 +15178,11 @@
         <v>40</v>
       </c>
       <c r="CZ80" s="41"/>
+      <c r="DA80">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="81" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A81" s="34"/>
       <c r="B81" s="35"/>
       <c r="D81" s="34"/>
@@ -14988,10 +15230,10 @@
       <c r="AV81" s="39"/>
       <c r="AW81" s="39"/>
       <c r="AX81" s="39"/>
-      <c r="AY81" s="44">
+      <c r="AY81" s="43">
         <v>149000000</v>
       </c>
-      <c r="AZ81" s="44">
+      <c r="AZ81" s="43">
         <v>4680000</v>
       </c>
       <c r="BA81" s="34"/>
@@ -15002,10 +15244,10 @@
         <v>0</v>
       </c>
       <c r="BD81" s="34"/>
-      <c r="BE81" s="44">
+      <c r="BE81" s="43">
         <v>3.0599999999999998E-5</v>
       </c>
-      <c r="BF81" s="44">
+      <c r="BF81" s="43">
         <v>8.7000000000000003E-7</v>
       </c>
       <c r="BH81">
@@ -15015,10 +15257,10 @@
         <v>0</v>
       </c>
       <c r="BJ81" s="34"/>
-      <c r="BK81" s="44">
+      <c r="BK81" s="43">
         <v>1.77E-5</v>
       </c>
-      <c r="BL81" s="44">
+      <c r="BL81" s="43">
         <v>5.0399999999999996E-7</v>
       </c>
       <c r="BN81">
@@ -15112,8 +15354,11 @@
         <v>40</v>
       </c>
       <c r="CZ81" s="41"/>
+      <c r="DA81">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="82" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A82" s="34"/>
       <c r="B82" s="35"/>
       <c r="D82" s="34"/>
@@ -15161,10 +15406,10 @@
       <c r="AV82" s="39"/>
       <c r="AW82" s="39"/>
       <c r="AX82" s="39"/>
-      <c r="AY82" s="44">
+      <c r="AY82" s="43">
         <v>207000000</v>
       </c>
-      <c r="AZ82" s="44">
+      <c r="AZ82" s="43">
         <v>11900000</v>
       </c>
       <c r="BA82" s="34"/>
@@ -15175,10 +15420,10 @@
         <v>0</v>
       </c>
       <c r="BD82" s="34"/>
-      <c r="BE82" s="44">
+      <c r="BE82" s="43">
         <v>2.3099999999999999E-5</v>
       </c>
-      <c r="BF82" s="44">
+      <c r="BF82" s="43">
         <v>7.4300000000000002E-7</v>
       </c>
       <c r="BH82">
@@ -15188,10 +15433,10 @@
         <v>0</v>
       </c>
       <c r="BJ82" s="34"/>
-      <c r="BK82" s="44">
+      <c r="BK82" s="43">
         <v>1.01E-5</v>
       </c>
-      <c r="BL82" s="44">
+      <c r="BL82" s="43">
         <v>3.1300000000000001E-7</v>
       </c>
       <c r="BN82">
@@ -15285,8 +15530,11 @@
         <v>40</v>
       </c>
       <c r="CZ82" s="41"/>
+      <c r="DA82">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="83" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A83" s="34"/>
       <c r="B83" s="35"/>
       <c r="D83" s="34"/>
@@ -15334,10 +15582,10 @@
       <c r="AV83" s="39"/>
       <c r="AW83" s="39"/>
       <c r="AX83" s="39"/>
-      <c r="AY83" s="44">
+      <c r="AY83" s="43">
         <v>250000000</v>
       </c>
-      <c r="AZ83" s="44">
+      <c r="AZ83" s="43">
         <v>5870000</v>
       </c>
       <c r="BA83" s="34"/>
@@ -15348,10 +15596,10 @@
         <v>0</v>
       </c>
       <c r="BD83" s="34"/>
-      <c r="BE83" s="44">
+      <c r="BE83" s="43">
         <v>1.4800000000000001E-5</v>
       </c>
-      <c r="BF83" s="44">
+      <c r="BF83" s="43">
         <v>4.1100000000000001E-7</v>
       </c>
       <c r="BH83">
@@ -15361,10 +15609,10 @@
         <v>0</v>
       </c>
       <c r="BJ83" s="34"/>
-      <c r="BK83" s="44">
+      <c r="BK83" s="43">
         <v>6.8399999999999997E-6</v>
       </c>
-      <c r="BL83" s="44">
+      <c r="BL83" s="43">
         <v>1.9299999999999999E-7</v>
       </c>
       <c r="BN83">
@@ -15458,8 +15706,11 @@
         <v>40</v>
       </c>
       <c r="CZ83" s="41"/>
+      <c r="DA83">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="84" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A84" s="34"/>
       <c r="B84" s="35"/>
       <c r="D84" s="34"/>
@@ -15507,10 +15758,10 @@
       <c r="AV84" s="39"/>
       <c r="AW84" s="39"/>
       <c r="AX84" s="39"/>
-      <c r="AY84" s="44">
+      <c r="AY84" s="43">
         <v>96200000</v>
       </c>
-      <c r="AZ84" s="44">
+      <c r="AZ84" s="43">
         <v>3550000</v>
       </c>
       <c r="BA84" s="34"/>
@@ -15521,10 +15772,10 @@
         <v>0</v>
       </c>
       <c r="BD84" s="34"/>
-      <c r="BE84" s="44">
+      <c r="BE84" s="43">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="BF84" s="44">
+      <c r="BF84" s="43">
         <v>8.6700000000000002E-7</v>
       </c>
       <c r="BH84">
@@ -15534,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="BJ84" s="34"/>
-      <c r="BK84" s="44">
+      <c r="BK84" s="43">
         <v>8.9299999999999992E-6</v>
       </c>
-      <c r="BL84" s="44">
+      <c r="BL84" s="43">
         <v>2.8599999999999999E-7</v>
       </c>
       <c r="BN84">
@@ -15631,8 +15882,11 @@
         <v>40</v>
       </c>
       <c r="CZ84" s="41"/>
+      <c r="DA84">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="85" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A85" s="34"/>
       <c r="B85" s="35"/>
       <c r="D85" s="34"/>
@@ -15680,43 +15934,43 @@
       <c r="AV85" s="39"/>
       <c r="AW85" s="39"/>
       <c r="AX85" s="39"/>
-      <c r="AY85" s="44">
+      <c r="AY85" s="43">
         <v>70900000</v>
       </c>
-      <c r="AZ85" s="44">
+      <c r="AZ85" s="43">
         <v>2540000</v>
       </c>
       <c r="BA85" s="34"/>
-      <c r="BB85" s="44">
+      <c r="BB85" s="43">
         <v>66900000</v>
       </c>
-      <c r="BC85" s="44">
+      <c r="BC85" s="43">
         <v>2360000</v>
       </c>
       <c r="BD85" s="34"/>
-      <c r="BE85" s="44">
+      <c r="BE85" s="43">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="BF85" s="44">
+      <c r="BF85" s="43">
         <v>8.3300000000000001E-7</v>
       </c>
-      <c r="BH85" s="44">
+      <c r="BH85" s="43">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="BI85" s="44">
+      <c r="BI85" s="43">
         <v>5.5199999999999997E-7</v>
       </c>
       <c r="BJ85" s="34"/>
-      <c r="BK85" s="44">
+      <c r="BK85" s="43">
         <v>2.1399999999999998E-5</v>
       </c>
-      <c r="BL85" s="44">
+      <c r="BL85" s="43">
         <v>8.3399999999999998E-7</v>
       </c>
-      <c r="BN85" s="44">
+      <c r="BN85" s="43">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="BO85" s="44">
+      <c r="BO85" s="43">
         <v>6.5799999999999999E-7</v>
       </c>
       <c r="BP85" s="34"/>
@@ -15804,8 +16058,11 @@
         <v>40</v>
       </c>
       <c r="CZ85" s="41"/>
+      <c r="DA85">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="86" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A86" s="34"/>
       <c r="B86" s="35"/>
       <c r="D86" s="34"/>
@@ -15853,43 +16110,43 @@
       <c r="AV86" s="39"/>
       <c r="AW86" s="39"/>
       <c r="AX86" s="39"/>
-      <c r="AY86" s="44">
+      <c r="AY86" s="43">
         <v>76700000</v>
       </c>
-      <c r="AZ86" s="44">
+      <c r="AZ86" s="43">
         <v>1900000</v>
       </c>
       <c r="BA86" s="34"/>
-      <c r="BB86" s="44">
+      <c r="BB86" s="43">
         <v>62800000</v>
       </c>
-      <c r="BC86" s="44">
+      <c r="BC86" s="43">
         <v>4350000</v>
       </c>
       <c r="BD86" s="34"/>
-      <c r="BE86" s="44">
+      <c r="BE86" s="43">
         <v>3.3200000000000001E-5</v>
       </c>
-      <c r="BF86" s="44">
+      <c r="BF86" s="43">
         <v>1.3200000000000001E-6</v>
       </c>
       <c r="BH86">
         <v>2.8399999999999999E-5</v>
       </c>
-      <c r="BI86" s="44">
+      <c r="BI86" s="43">
         <v>1.37E-6</v>
       </c>
       <c r="BJ86" s="34"/>
-      <c r="BK86" s="44">
+      <c r="BK86" s="43">
         <v>1.9899999999999999E-5</v>
       </c>
-      <c r="BL86" s="44">
+      <c r="BL86" s="43">
         <v>3.0699999999999998E-7</v>
       </c>
       <c r="BN86">
         <v>1.95E-5</v>
       </c>
-      <c r="BO86" s="44">
+      <c r="BO86" s="43">
         <v>2.8000000000000002E-7</v>
       </c>
       <c r="BP86" s="34"/>
@@ -15977,8 +16234,11 @@
         <v>40</v>
       </c>
       <c r="CZ86" s="41"/>
+      <c r="DA86">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="87" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A87" s="34"/>
       <c r="B87" s="35"/>
       <c r="D87" s="34"/>
@@ -16026,10 +16286,10 @@
       <c r="AV87" s="39"/>
       <c r="AW87" s="39"/>
       <c r="AX87" s="39"/>
-      <c r="AY87" s="44">
+      <c r="AY87" s="43">
         <v>54400000</v>
       </c>
-      <c r="AZ87" s="44">
+      <c r="AZ87" s="43">
         <v>1790000</v>
       </c>
       <c r="BA87" s="34"/>
@@ -16040,10 +16300,10 @@
         <v>0</v>
       </c>
       <c r="BD87" s="34"/>
-      <c r="BE87" s="44">
+      <c r="BE87" s="43">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="BF87" s="44">
+      <c r="BF87" s="43">
         <v>7.4399999999999999E-7</v>
       </c>
       <c r="BH87">
@@ -16053,10 +16313,10 @@
         <v>0</v>
       </c>
       <c r="BJ87" s="34"/>
-      <c r="BK87" s="44">
+      <c r="BK87" s="43">
         <v>1.42E-5</v>
       </c>
-      <c r="BL87" s="44">
+      <c r="BL87" s="43">
         <v>3.4700000000000002E-7</v>
       </c>
       <c r="BN87">
@@ -16150,8 +16410,11 @@
         <v>40</v>
       </c>
       <c r="CZ87" s="41"/>
+      <c r="DA87">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="88" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A88" s="34"/>
       <c r="B88" s="35"/>
       <c r="D88" s="34"/>
@@ -16199,10 +16462,10 @@
       <c r="AV88" s="39"/>
       <c r="AW88" s="39"/>
       <c r="AX88" s="39"/>
-      <c r="AY88" s="44">
+      <c r="AY88" s="43">
         <v>92600000</v>
       </c>
-      <c r="AZ88" s="44">
+      <c r="AZ88" s="43">
         <v>4250000</v>
       </c>
       <c r="BA88" s="34"/>
@@ -16213,10 +16476,10 @@
         <v>0</v>
       </c>
       <c r="BD88" s="34"/>
-      <c r="BE88" s="44">
+      <c r="BE88" s="43">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="BF88" s="44">
+      <c r="BF88" s="43">
         <v>7.5799999999999998E-7</v>
       </c>
       <c r="BH88">
@@ -16226,10 +16489,10 @@
         <v>0</v>
       </c>
       <c r="BJ88" s="34"/>
-      <c r="BK88" s="44">
+      <c r="BK88" s="43">
         <v>7.2899999999999997E-6</v>
       </c>
-      <c r="BL88" s="44">
+      <c r="BL88" s="43">
         <v>3.7399999999999999E-7</v>
       </c>
       <c r="BN88">
@@ -16323,8 +16586,11 @@
         <v>40</v>
       </c>
       <c r="CZ88" s="41"/>
+      <c r="DA88">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="89" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A89" s="34"/>
       <c r="B89" s="35"/>
       <c r="D89" s="34"/>
@@ -16372,10 +16638,10 @@
       <c r="AV89" s="39"/>
       <c r="AW89" s="39"/>
       <c r="AX89" s="39"/>
-      <c r="AY89" s="44">
+      <c r="AY89" s="43">
         <v>72700000</v>
       </c>
-      <c r="AZ89" s="44">
+      <c r="AZ89" s="43">
         <v>3290000</v>
       </c>
       <c r="BA89" s="34"/>
@@ -16386,10 +16652,10 @@
         <v>0</v>
       </c>
       <c r="BD89" s="34"/>
-      <c r="BE89" s="44">
+      <c r="BE89" s="43">
         <v>1.6500000000000001E-5</v>
       </c>
-      <c r="BF89" s="44">
+      <c r="BF89" s="43">
         <v>8.2999999999999999E-7</v>
       </c>
       <c r="BH89">
@@ -16399,10 +16665,10 @@
         <v>0</v>
       </c>
       <c r="BJ89" s="34"/>
-      <c r="BK89" s="44">
+      <c r="BK89" s="43">
         <v>8.1699999999999997E-6</v>
       </c>
-      <c r="BL89" s="44">
+      <c r="BL89" s="43">
         <v>3.3700000000000001E-7</v>
       </c>
       <c r="BN89">
@@ -16496,8 +16762,11 @@
         <v>40</v>
       </c>
       <c r="CZ89" s="41"/>
+      <c r="DA89">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="90" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A90" s="34"/>
       <c r="B90" s="35"/>
       <c r="D90" s="34"/>
@@ -16545,10 +16814,10 @@
       <c r="AV90" s="39"/>
       <c r="AW90" s="39"/>
       <c r="AX90" s="39"/>
-      <c r="AY90" s="44">
+      <c r="AY90" s="43">
         <v>91000000</v>
       </c>
-      <c r="AZ90" s="44">
+      <c r="AZ90" s="43">
         <v>2540000</v>
       </c>
       <c r="BA90" s="34"/>
@@ -16559,10 +16828,10 @@
         <v>0</v>
       </c>
       <c r="BD90" s="34"/>
-      <c r="BE90" s="44">
+      <c r="BE90" s="43">
         <v>1.5699999999999999E-5</v>
       </c>
-      <c r="BF90" s="44">
+      <c r="BF90" s="43">
         <v>4.4200000000000001E-7</v>
       </c>
       <c r="BH90">
@@ -16572,10 +16841,10 @@
         <v>0</v>
       </c>
       <c r="BJ90" s="34"/>
-      <c r="BK90" s="44">
+      <c r="BK90" s="43">
         <v>8.4100000000000008E-6</v>
       </c>
-      <c r="BL90" s="44">
+      <c r="BL90" s="43">
         <v>3.5199999999999998E-7</v>
       </c>
       <c r="BN90">
@@ -16669,8 +16938,11 @@
         <v>40</v>
       </c>
       <c r="CZ90" s="41"/>
+      <c r="DA90">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="91" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A91" s="34"/>
       <c r="B91" s="35"/>
       <c r="D91" s="34"/>
@@ -16718,10 +16990,10 @@
       <c r="AV91" s="39"/>
       <c r="AW91" s="39"/>
       <c r="AX91" s="39"/>
-      <c r="AY91" s="44">
+      <c r="AY91" s="43">
         <v>83000000</v>
       </c>
-      <c r="AZ91" s="44">
+      <c r="AZ91" s="43">
         <v>2100000</v>
       </c>
       <c r="BA91" s="34"/>
@@ -16732,10 +17004,10 @@
         <v>0</v>
       </c>
       <c r="BD91" s="34"/>
-      <c r="BE91" s="44">
+      <c r="BE91" s="43">
         <v>1.6699999999999999E-5</v>
       </c>
-      <c r="BF91" s="44">
+      <c r="BF91" s="43">
         <v>7.5700000000000002E-7</v>
       </c>
       <c r="BH91">
@@ -16745,10 +17017,10 @@
         <v>0</v>
       </c>
       <c r="BJ91" s="34"/>
-      <c r="BK91" s="44">
+      <c r="BK91" s="43">
         <v>7.8800000000000008E-6</v>
       </c>
-      <c r="BL91" s="44">
+      <c r="BL91" s="43">
         <v>2.9499999999999998E-7</v>
       </c>
       <c r="BN91">
@@ -16842,8 +17114,11 @@
         <v>40</v>
       </c>
       <c r="CZ91" s="41"/>
+      <c r="DA91">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="92" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A92" s="34"/>
       <c r="B92" s="35"/>
       <c r="D92" s="34"/>
@@ -16891,43 +17166,43 @@
       <c r="AV92" s="39"/>
       <c r="AW92" s="39"/>
       <c r="AX92" s="39"/>
-      <c r="AY92" s="44">
+      <c r="AY92" s="43">
         <v>47500000</v>
       </c>
-      <c r="AZ92" s="44">
+      <c r="AZ92" s="43">
         <v>1080000</v>
       </c>
       <c r="BA92" s="34"/>
-      <c r="BB92" s="44">
+      <c r="BB92" s="43">
         <v>11700000</v>
       </c>
-      <c r="BC92" s="44">
+      <c r="BC92" s="43">
         <v>5370000</v>
       </c>
       <c r="BD92" s="34"/>
-      <c r="BE92" s="44">
+      <c r="BE92" s="43">
         <v>2.27E-5</v>
       </c>
-      <c r="BF92" s="44">
+      <c r="BF92" s="43">
         <v>4.9699999999999996E-7</v>
       </c>
       <c r="BH92">
         <v>2.0800000000000001E-5</v>
       </c>
-      <c r="BI92" s="44">
+      <c r="BI92" s="43">
         <v>4.6899999999999998E-7</v>
       </c>
       <c r="BJ92" s="34"/>
-      <c r="BK92" s="44">
+      <c r="BK92" s="43">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="BL92" s="44">
+      <c r="BL92" s="43">
         <v>2.3900000000000001E-7</v>
       </c>
       <c r="BN92">
         <v>1.24E-5</v>
       </c>
-      <c r="BO92" s="44">
+      <c r="BO92" s="43">
         <v>1.31E-7</v>
       </c>
       <c r="BP92" s="34"/>
@@ -17015,8 +17290,11 @@
         <v>40</v>
       </c>
       <c r="CZ92" s="41"/>
+      <c r="DA92">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="93" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A93" s="34"/>
       <c r="B93" s="35"/>
       <c r="D93" s="34"/>
@@ -17064,10 +17342,10 @@
       <c r="AV93" s="39"/>
       <c r="AW93" s="39"/>
       <c r="AX93" s="39"/>
-      <c r="AY93" s="44">
+      <c r="AY93" s="43">
         <v>148000000</v>
       </c>
-      <c r="AZ93" s="44">
+      <c r="AZ93" s="43">
         <v>5610000</v>
       </c>
       <c r="BA93" s="34"/>
@@ -17081,7 +17359,7 @@
       <c r="BE93">
         <v>2.0699999999999998E-5</v>
       </c>
-      <c r="BF93" s="44">
+      <c r="BF93" s="43">
         <v>1.0499999999999999E-6</v>
       </c>
       <c r="BH93">
@@ -17094,7 +17372,7 @@
       <c r="BK93">
         <v>9.7000000000000003E-6</v>
       </c>
-      <c r="BL93" s="44">
+      <c r="BL93" s="43">
         <v>4.2800000000000002E-7</v>
       </c>
       <c r="BN93">
@@ -17188,8 +17466,11 @@
         <v>40</v>
       </c>
       <c r="CZ93" s="41"/>
+      <c r="DA93">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="94" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A94" s="34"/>
       <c r="B94" s="35"/>
       <c r="D94" s="34"/>
@@ -17237,10 +17518,10 @@
       <c r="AV94" s="39"/>
       <c r="AW94" s="39"/>
       <c r="AX94" s="39"/>
-      <c r="AY94" s="44">
+      <c r="AY94" s="43">
         <v>103000000</v>
       </c>
-      <c r="AZ94" s="44">
+      <c r="AZ94" s="43">
         <v>7510000</v>
       </c>
       <c r="BA94" s="34"/>
@@ -17251,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="BD94" s="34"/>
-      <c r="BE94" s="44">
+      <c r="BE94" s="43">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="BF94" s="44">
+      <c r="BF94" s="43">
         <v>1.2899999999999999E-6</v>
       </c>
       <c r="BH94">
@@ -17264,10 +17545,10 @@
         <v>0</v>
       </c>
       <c r="BJ94" s="34"/>
-      <c r="BK94" s="44">
+      <c r="BK94" s="43">
         <v>1.5E-5</v>
       </c>
-      <c r="BL94" s="44">
+      <c r="BL94" s="43">
         <v>7.5700000000000002E-7</v>
       </c>
       <c r="BN94">
@@ -17361,8 +17642,11 @@
         <v>40</v>
       </c>
       <c r="CZ94" s="41"/>
+      <c r="DA94">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="95" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A95" s="34"/>
       <c r="B95" s="35"/>
       <c r="D95" s="34"/>
@@ -17410,10 +17694,10 @@
       <c r="AV95" s="39"/>
       <c r="AW95" s="39"/>
       <c r="AX95" s="39"/>
-      <c r="AY95" s="44">
+      <c r="AY95" s="43">
         <v>336000000</v>
       </c>
-      <c r="AZ95" s="44">
+      <c r="AZ95" s="43">
         <v>14400000</v>
       </c>
       <c r="BA95" s="34"/>
@@ -17427,7 +17711,7 @@
       <c r="BE95">
         <v>2.3600000000000001E-5</v>
       </c>
-      <c r="BF95" s="44">
+      <c r="BF95" s="43">
         <v>1.9700000000000002E-6</v>
       </c>
       <c r="BH95">
@@ -17440,7 +17724,7 @@
       <c r="BK95">
         <v>9.0799999999999995E-6</v>
       </c>
-      <c r="BL95" s="44">
+      <c r="BL95" s="43">
         <v>5.37E-7</v>
       </c>
       <c r="BN95">
@@ -17534,8 +17818,11 @@
         <v>40</v>
       </c>
       <c r="CZ95" s="41"/>
+      <c r="DA95">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="96" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:105" x14ac:dyDescent="0.8">
       <c r="A96" s="34"/>
       <c r="B96" s="35"/>
       <c r="D96" s="34"/>
@@ -17583,10 +17870,10 @@
       <c r="AV96" s="39"/>
       <c r="AW96" s="39"/>
       <c r="AX96" s="39"/>
-      <c r="AY96" s="44">
+      <c r="AY96" s="43">
         <v>136000000</v>
       </c>
-      <c r="AZ96" s="44">
+      <c r="AZ96" s="43">
         <v>3690000</v>
       </c>
       <c r="BA96" s="34"/>
@@ -17600,7 +17887,7 @@
       <c r="BE96">
         <v>3.15E-5</v>
       </c>
-      <c r="BF96" s="44">
+      <c r="BF96" s="43">
         <v>6.3200000000000005E-7</v>
       </c>
       <c r="BH96">
@@ -17613,7 +17900,7 @@
       <c r="BK96">
         <v>1.7399999999999999E-5</v>
       </c>
-      <c r="BL96" s="44">
+      <c r="BL96" s="43">
         <v>3.5499999999999999E-7</v>
       </c>
       <c r="BN96">
@@ -17707,8 +17994,11 @@
         <v>40</v>
       </c>
       <c r="CZ96" s="41"/>
+      <c r="DA96">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="97" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A97" s="34"/>
       <c r="B97" s="35"/>
       <c r="D97" s="34"/>
@@ -17801,7 +18091,7 @@
       <c r="CY97" s="41"/>
       <c r="CZ97" s="41"/>
     </row>
-    <row r="98" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A98" s="34"/>
       <c r="B98" s="35"/>
       <c r="D98" s="34"/>
@@ -17894,7 +18184,7 @@
       <c r="CY98" s="41"/>
       <c r="CZ98" s="41"/>
     </row>
-    <row r="99" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A99" s="34"/>
       <c r="B99" s="35"/>
       <c r="D99" s="34"/>
@@ -17987,7 +18277,7 @@
       <c r="CY99" s="41"/>
       <c r="CZ99" s="41"/>
     </row>
-    <row r="100" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A100" s="34"/>
       <c r="B100" s="35"/>
       <c r="D100" s="34"/>
@@ -18080,7 +18370,7 @@
       <c r="CY100" s="41"/>
       <c r="CZ100" s="41"/>
     </row>
-    <row r="101" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A101" s="34"/>
       <c r="B101" s="35"/>
       <c r="D101" s="34"/>
@@ -18173,7 +18463,7 @@
       <c r="CY101" s="41"/>
       <c r="CZ101" s="41"/>
     </row>
-    <row r="102" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A102" s="34"/>
       <c r="B102" s="35"/>
       <c r="D102" s="34"/>
@@ -18266,7 +18556,7 @@
       <c r="CY102" s="41"/>
       <c r="CZ102" s="41"/>
     </row>
-    <row r="103" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A103" s="34"/>
       <c r="B103" s="35"/>
       <c r="D103" s="34"/>
@@ -18359,7 +18649,7 @@
       <c r="CY103" s="41"/>
       <c r="CZ103" s="41"/>
     </row>
-    <row r="104" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A104" s="34"/>
       <c r="B104" s="35"/>
       <c r="D104" s="34"/>
@@ -18452,7 +18742,7 @@
       <c r="CY104" s="41"/>
       <c r="CZ104" s="41"/>
     </row>
-    <row r="105" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A105" s="34"/>
       <c r="B105" s="35"/>
       <c r="D105" s="34"/>
@@ -18545,7 +18835,7 @@
       <c r="CY105" s="41"/>
       <c r="CZ105" s="41"/>
     </row>
-    <row r="106" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A106" s="34"/>
       <c r="B106" s="35"/>
       <c r="D106" s="34"/>
@@ -18638,7 +18928,7 @@
       <c r="CY106" s="41"/>
       <c r="CZ106" s="41"/>
     </row>
-    <row r="107" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A107" s="34"/>
       <c r="B107" s="35"/>
       <c r="D107" s="34"/>
@@ -18731,7 +19021,7 @@
       <c r="CY107" s="41"/>
       <c r="CZ107" s="41"/>
     </row>
-    <row r="108" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A108" s="34"/>
       <c r="B108" s="35"/>
       <c r="D108" s="34"/>
@@ -18824,7 +19114,7 @@
       <c r="CY108" s="41"/>
       <c r="CZ108" s="41"/>
     </row>
-    <row r="109" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A109" s="34"/>
       <c r="B109" s="35"/>
       <c r="D109" s="34"/>
@@ -18917,7 +19207,7 @@
       <c r="CY109" s="41"/>
       <c r="CZ109" s="41"/>
     </row>
-    <row r="110" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A110" s="34"/>
       <c r="B110" s="35"/>
       <c r="D110" s="34"/>
@@ -19010,7 +19300,7 @@
       <c r="CY110" s="41"/>
       <c r="CZ110" s="41"/>
     </row>
-    <row r="111" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A111" s="34"/>
       <c r="B111" s="35"/>
       <c r="D111" s="34"/>
@@ -19103,7 +19393,7 @@
       <c r="CY111" s="41"/>
       <c r="CZ111" s="41"/>
     </row>
-    <row r="112" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A112" s="34"/>
       <c r="B112" s="35"/>
       <c r="D112" s="34"/>
@@ -19196,7 +19486,7 @@
       <c r="CY112" s="41"/>
       <c r="CZ112" s="41"/>
     </row>
-    <row r="113" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A113" s="34"/>
       <c r="B113" s="35"/>
       <c r="D113" s="34"/>
@@ -19289,7 +19579,7 @@
       <c r="CY113" s="41"/>
       <c r="CZ113" s="41"/>
     </row>
-    <row r="114" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A114" s="34"/>
       <c r="B114" s="35"/>
       <c r="D114" s="34"/>
@@ -19382,7 +19672,7 @@
       <c r="CY114" s="41"/>
       <c r="CZ114" s="41"/>
     </row>
-    <row r="115" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A115" s="34"/>
       <c r="B115" s="35"/>
       <c r="D115" s="34"/>
@@ -19475,7 +19765,7 @@
       <c r="CY115" s="41"/>
       <c r="CZ115" s="41"/>
     </row>
-    <row r="116" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A116" s="34"/>
       <c r="B116" s="35"/>
       <c r="D116" s="34"/>
@@ -19568,7 +19858,7 @@
       <c r="CY116" s="41"/>
       <c r="CZ116" s="41"/>
     </row>
-    <row r="117" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A117" s="34"/>
       <c r="B117" s="35"/>
       <c r="D117" s="34"/>
@@ -19661,7 +19951,7 @@
       <c r="CY117" s="41"/>
       <c r="CZ117" s="41"/>
     </row>
-    <row r="118" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A118" s="34"/>
       <c r="B118" s="35"/>
       <c r="D118" s="34"/>
@@ -19754,7 +20044,7 @@
       <c r="CY118" s="41"/>
       <c r="CZ118" s="41"/>
     </row>
-    <row r="119" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A119" s="34"/>
       <c r="B119" s="35"/>
       <c r="D119" s="34"/>
@@ -19847,7 +20137,7 @@
       <c r="CY119" s="41"/>
       <c r="CZ119" s="41"/>
     </row>
-    <row r="120" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A120" s="34"/>
       <c r="B120" s="35"/>
       <c r="D120" s="34"/>
@@ -19940,7 +20230,7 @@
       <c r="CY120" s="41"/>
       <c r="CZ120" s="41"/>
     </row>
-    <row r="121" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:104" x14ac:dyDescent="0.8">
       <c r="A121" s="34"/>
       <c r="B121" s="35"/>
       <c r="D121" s="34"/>
@@ -20051,24 +20341,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.8">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="32" x14ac:dyDescent="0.8">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.8">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.8">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
